--- a/NMxAccuracy/data/all_correlations_07july21.xlsx
+++ b/NMxAccuracy/data/all_correlations_07july21.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB7209-EE3D-F64E-93E2-71EDD028294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F1662-9D9C-CD45-9A94-26AE5B04F2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34780" yWindow="740" windowWidth="24640" windowHeight="13760" xr2:uid="{7B7F7BAB-FA41-9D48-84C9-F4BF17DEFDBE}"/>
+    <workbookView xWindow="32880" yWindow="1000" windowWidth="24640" windowHeight="13760" xr2:uid="{7B7F7BAB-FA41-9D48-84C9-F4BF17DEFDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>NM full</t>
   </si>
@@ -223,6 +223,30 @@
   </si>
   <si>
     <t>NMvstri</t>
+  </si>
+  <si>
+    <t>MRVS Agerage</t>
+  </si>
+  <si>
+    <t>MLVS Average</t>
+  </si>
+  <si>
+    <t>MLDS Average</t>
+  </si>
+  <si>
+    <t>MRDS Average</t>
+  </si>
+  <si>
+    <t>SLVS Average</t>
+  </si>
+  <si>
+    <t>SRVS Average</t>
+  </si>
+  <si>
+    <t>SLDS Average</t>
+  </si>
+  <si>
+    <t>SRDS Average</t>
   </si>
 </sst>
 </file>
@@ -913,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA034127-0E23-0C49-8611-B0DA4E265D68}">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AV36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,7 +951,7 @@
     <col min="8" max="8" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -978,73 +1002,97 @@
         <v>11</v>
       </c>
       <c r="S1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AI1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AQ1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AU1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
@@ -1089,81 +1137,113 @@
         <v>-0.15945799999999999</v>
       </c>
       <c r="S2" s="15">
-        <f>R2-Q2</f>
+        <f>AVERAGE(Q2,R2)</f>
+        <v>-0.11299999999999999</v>
+      </c>
+      <c r="T2" s="15">
+        <f t="shared" ref="T2:T36" si="0">R2-Q2</f>
         <v>-9.2915999999999985E-2</v>
       </c>
-      <c r="T2" s="22">
+      <c r="U2" s="22">
         <v>-0.127364</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-0.100619</v>
       </c>
-      <c r="V2" s="15">
-        <f>U2-T2</f>
+      <c r="W2">
+        <f>AVERAGE(U2,V2)</f>
+        <v>-0.1139915</v>
+      </c>
+      <c r="X2" s="15">
+        <f t="shared" ref="X2:X36" si="1">V2-U2</f>
         <v>2.6745000000000005E-2</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>-7.3726E-2</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>1.7937999999999999E-2</v>
       </c>
-      <c r="Y2" s="15">
-        <f>X2-W2</f>
+      <c r="AA2">
+        <f>AVERAGE(Y2,Z2)</f>
+        <v>-2.7894000000000002E-2</v>
+      </c>
+      <c r="AB2" s="15">
+        <f t="shared" ref="AB2:AB36" si="2">Z2-Y2</f>
         <v>9.1663999999999995E-2</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>-5.9027999999999997E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <v>6.9194000000000006E-2</v>
       </c>
-      <c r="AB2" s="15">
-        <f>AA2-Z2</f>
+      <c r="AE2">
+        <f>AVERAGE(AC2,AD2)</f>
+        <v>5.0830000000000042E-3</v>
+      </c>
+      <c r="AF2" s="15">
+        <f>AD2-AC2</f>
         <v>0.128222</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>3.8214999999999999E-2</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>-8.404E-3</v>
       </c>
-      <c r="AE2" s="15">
-        <f>AD2-AC2</f>
+      <c r="AI2">
+        <f>AVERAGE(AG2,AH2)</f>
+        <v>1.4905499999999999E-2</v>
+      </c>
+      <c r="AJ2" s="15">
+        <f t="shared" ref="AJ2:AJ36" si="3">AH2-AG2</f>
         <v>-4.6619000000000001E-2</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <v>1.4739E-2</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <v>-4.8593999999999998E-2</v>
       </c>
-      <c r="AH2">
-        <f>AG2-AF2</f>
+      <c r="AM2">
+        <f>AVERAGE(AK2,AL2)</f>
+        <v>-1.6927499999999998E-2</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN36" si="4">AL2-AK2</f>
         <v>-6.3333E-2</v>
       </c>
-      <c r="AI2" s="22">
+      <c r="AO2" s="22">
         <v>0.10792300000000001</v>
       </c>
-      <c r="AJ2">
+      <c r="AP2">
         <v>7.7044000000000001E-2</v>
       </c>
-      <c r="AK2" s="15">
-        <f>AJ2-AI2</f>
+      <c r="AQ2">
+        <f>AVERAGE(AO2,AP2)</f>
+        <v>9.2483499999999996E-2</v>
+      </c>
+      <c r="AR2" s="15">
+        <f t="shared" ref="AR2:AR36" si="5">AP2-AO2</f>
         <v>-3.0879000000000004E-2</v>
       </c>
-      <c r="AL2" s="22">
+      <c r="AS2" s="22">
         <v>5.0793999999999999E-2</v>
       </c>
-      <c r="AM2">
+      <c r="AT2">
         <v>0.103228</v>
       </c>
-      <c r="AN2" s="15">
-        <f>AM2-AL2</f>
+      <c r="AU2">
+        <f>AVERAGE(AS2,AT2)</f>
+        <v>7.7010999999999996E-2</v>
+      </c>
+      <c r="AV2" s="15">
+        <f t="shared" ref="AV2:AV36" si="6">AT2-AS2</f>
         <v>5.2434000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -1198,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="P3" s="21">
-        <f t="shared" ref="P3:P36" si="0">SUM(M3,N3,O3)</f>
+        <f t="shared" ref="P3:P36" si="7">SUM(M3,N3,O3)</f>
         <v>57</v>
       </c>
       <c r="Q3" s="22">
@@ -1208,81 +1288,113 @@
         <v>0.220913</v>
       </c>
       <c r="S3" s="15">
-        <f>R3-Q3</f>
+        <f t="shared" ref="S3:S36" si="8">AVERAGE(Q3,R3)</f>
+        <v>8.8041999999999995E-2</v>
+      </c>
+      <c r="T3" s="15">
+        <f t="shared" si="0"/>
         <v>0.26574199999999998</v>
       </c>
-      <c r="T3" s="22">
+      <c r="U3" s="22">
         <v>-4.4685000000000002E-2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.18799199999999999</v>
       </c>
-      <c r="V3" s="15">
-        <f>U3-T3</f>
+      <c r="W3">
+        <f t="shared" ref="W3:W36" si="9">AVERAGE(U3,V3)</f>
+        <v>7.1653499999999995E-2</v>
+      </c>
+      <c r="X3" s="15">
+        <f t="shared" si="1"/>
         <v>0.23267699999999999</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>6.0252E-2</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.193687</v>
       </c>
-      <c r="Y3" s="15">
-        <f>X3-W3</f>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA36" si="10">AVERAGE(Y3,Z3)</f>
+        <v>0.12696950000000001</v>
+      </c>
+      <c r="AB3" s="15">
+        <f t="shared" si="2"/>
         <v>0.133435</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>-2.3734000000000002E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AD3">
         <v>9.2760999999999996E-2</v>
       </c>
-      <c r="AB3" s="15">
-        <f t="shared" ref="AB3:AB36" si="1">AA3-Z3</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE36" si="11">AVERAGE(AC3,AD3)</f>
+        <v>3.4513499999999996E-2</v>
+      </c>
+      <c r="AF3" s="15">
+        <f t="shared" ref="AF3:AF36" si="12">AD3-AC3</f>
         <v>0.116495</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>-1.5193999999999999E-2</v>
       </c>
-      <c r="AD3">
+      <c r="AH3">
         <v>7.8881000000000007E-2</v>
       </c>
-      <c r="AE3" s="15">
-        <f>AD3-AC3</f>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI36" si="13">AVERAGE(AG3,AH3)</f>
+        <v>3.1843500000000004E-2</v>
+      </c>
+      <c r="AJ3" s="15">
+        <f t="shared" si="3"/>
         <v>9.4075000000000006E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AK3">
         <v>0.14275299999999999</v>
       </c>
-      <c r="AG3">
+      <c r="AL3">
         <v>0.14035700000000001</v>
       </c>
-      <c r="AH3">
-        <f>AG3-AF3</f>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM36" si="14">AVERAGE(AK3,AL3)</f>
+        <v>0.14155499999999999</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="4"/>
         <v>-2.3959999999999815E-3</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AO3" s="22">
         <v>-8.5683999999999996E-2</v>
       </c>
-      <c r="AJ3">
+      <c r="AP3">
         <v>5.3681E-2</v>
       </c>
-      <c r="AK3" s="15">
-        <f>AJ3-AI3</f>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ36" si="15">AVERAGE(AO3,AP3)</f>
+        <v>-1.6001499999999998E-2</v>
+      </c>
+      <c r="AR3" s="15">
+        <f t="shared" si="5"/>
         <v>0.13936499999999999</v>
       </c>
-      <c r="AL3" s="22">
+      <c r="AS3" s="22">
         <v>1.8766999999999999E-2</v>
       </c>
-      <c r="AM3">
+      <c r="AT3">
         <v>0.105311</v>
       </c>
-      <c r="AN3" s="15">
-        <f>AM3-AL3</f>
+      <c r="AU3">
+        <f t="shared" ref="AU3:AU36" si="16">AVERAGE(AS3,AT3)</f>
+        <v>6.2038999999999997E-2</v>
+      </c>
+      <c r="AV3" s="15">
+        <f t="shared" si="6"/>
         <v>8.654400000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="Q4" s="22">
@@ -1327,81 +1439,113 @@
         <v>-0.22715299999999999</v>
       </c>
       <c r="S4" s="15">
-        <f>R4-Q4</f>
+        <f t="shared" si="8"/>
+        <v>-0.16091</v>
+      </c>
+      <c r="T4" s="15">
+        <f t="shared" si="0"/>
         <v>-0.13248599999999999</v>
       </c>
-      <c r="T4" s="22">
+      <c r="U4" s="22">
         <v>-8.3731E-2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-0.111288</v>
       </c>
-      <c r="V4" s="15">
-        <f>U4-T4</f>
+      <c r="W4">
+        <f t="shared" si="9"/>
+        <v>-9.7509499999999999E-2</v>
+      </c>
+      <c r="X4" s="15">
+        <f t="shared" si="1"/>
         <v>-2.7556999999999998E-2</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>5.9560000000000004E-3</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>-1.9528E-2</v>
       </c>
-      <c r="Y4" s="15">
-        <f>X4-W4</f>
+      <c r="AA4">
+        <f t="shared" si="10"/>
+        <v>-6.7860000000000004E-3</v>
+      </c>
+      <c r="AB4" s="15">
+        <f t="shared" si="2"/>
         <v>-2.5484E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>-3.6502E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AD4">
         <v>-6.4127000000000003E-2</v>
       </c>
-      <c r="AB4" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE4">
+        <f t="shared" si="11"/>
+        <v>-5.0314499999999998E-2</v>
+      </c>
+      <c r="AF4" s="15">
+        <f t="shared" si="12"/>
         <v>-2.7625000000000004E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>-6.8329000000000001E-2</v>
       </c>
-      <c r="AD4">
+      <c r="AH4">
         <v>5.9101000000000001E-2</v>
       </c>
-      <c r="AE4" s="15">
-        <f>AD4-AC4</f>
+      <c r="AI4">
+        <f t="shared" si="13"/>
+        <v>-4.614E-3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <f t="shared" si="3"/>
         <v>0.12742999999999999</v>
       </c>
-      <c r="AF4">
+      <c r="AK4">
         <v>-0.181476</v>
       </c>
-      <c r="AG4">
+      <c r="AL4">
         <v>0.207646</v>
       </c>
-      <c r="AH4">
-        <f>AG4-AF4</f>
+      <c r="AM4">
+        <f t="shared" si="14"/>
+        <v>1.3084999999999999E-2</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="4"/>
         <v>0.38912199999999997</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AO4" s="22">
         <v>-0.12708</v>
       </c>
-      <c r="AJ4">
+      <c r="AP4">
         <v>0.10972</v>
       </c>
-      <c r="AK4" s="15">
-        <f>AJ4-AI4</f>
+      <c r="AQ4">
+        <f t="shared" si="15"/>
+        <v>-8.6800000000000002E-3</v>
+      </c>
+      <c r="AR4" s="15">
+        <f t="shared" si="5"/>
         <v>0.23680000000000001</v>
       </c>
-      <c r="AL4" s="22">
+      <c r="AS4" s="22">
         <v>-6.7714999999999997E-2</v>
       </c>
-      <c r="AM4">
+      <c r="AT4">
         <v>0.148752</v>
       </c>
-      <c r="AN4" s="15">
-        <f>AM4-AL4</f>
+      <c r="AU4">
+        <f t="shared" si="16"/>
+        <v>4.0518499999999999E-2</v>
+      </c>
+      <c r="AV4" s="15">
+        <f t="shared" si="6"/>
         <v>0.21646699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="Q5" s="22">
@@ -1446,81 +1590,113 @@
         <v>0.194741</v>
       </c>
       <c r="S5" s="15">
-        <f>R5-Q5</f>
+        <f t="shared" si="8"/>
+        <v>5.8026000000000001E-2</v>
+      </c>
+      <c r="T5" s="15">
+        <f t="shared" si="0"/>
         <v>0.27343000000000001</v>
       </c>
-      <c r="T5" s="22">
+      <c r="U5" s="22">
         <v>2.7518000000000001E-2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.229794</v>
       </c>
-      <c r="V5" s="15">
-        <f>U5-T5</f>
+      <c r="W5">
+        <f t="shared" si="9"/>
+        <v>0.12865599999999999</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" si="1"/>
         <v>0.20227600000000001</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>5.5053999999999999E-2</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>7.7166999999999999E-2</v>
       </c>
-      <c r="Y5" s="15">
-        <f>X5-W5</f>
+      <c r="AA5">
+        <f t="shared" si="10"/>
+        <v>6.6110500000000003E-2</v>
+      </c>
+      <c r="AB5" s="15">
+        <f t="shared" si="2"/>
         <v>2.2113000000000001E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>0.10002</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>9.3731999999999996E-2</v>
       </c>
-      <c r="AB5" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE5">
+        <f t="shared" si="11"/>
+        <v>9.687599999999999E-2</v>
+      </c>
+      <c r="AF5" s="15">
+        <f t="shared" si="12"/>
         <v>-6.2880000000000019E-3</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>-9.4317999999999999E-2</v>
       </c>
-      <c r="AD5">
+      <c r="AH5">
         <v>0.12393700000000001</v>
       </c>
-      <c r="AE5" s="15">
-        <f>AD5-AC5</f>
+      <c r="AI5">
+        <f t="shared" si="13"/>
+        <v>1.4809500000000003E-2</v>
+      </c>
+      <c r="AJ5" s="15">
+        <f t="shared" si="3"/>
         <v>0.218255</v>
       </c>
-      <c r="AF5">
+      <c r="AK5">
         <v>-7.2405999999999998E-2</v>
       </c>
-      <c r="AG5">
+      <c r="AL5">
         <v>0.23905000000000001</v>
       </c>
-      <c r="AH5">
-        <f>AG5-AF5</f>
+      <c r="AM5">
+        <f t="shared" si="14"/>
+        <v>8.3322000000000007E-2</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="4"/>
         <v>0.31145600000000001</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AO5" s="22">
         <v>-5.7637000000000001E-2</v>
       </c>
-      <c r="AJ5">
+      <c r="AP5">
         <v>9.7147999999999998E-2</v>
       </c>
-      <c r="AK5" s="15">
-        <f>AJ5-AI5</f>
+      <c r="AQ5">
+        <f t="shared" si="15"/>
+        <v>1.9755499999999999E-2</v>
+      </c>
+      <c r="AR5" s="15">
+        <f t="shared" si="5"/>
         <v>0.15478500000000001</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AS5" s="22">
         <v>8.6390000000000008E-3</v>
       </c>
-      <c r="AM5">
+      <c r="AT5">
         <v>7.0703000000000002E-2</v>
       </c>
-      <c r="AN5" s="15">
-        <f>AM5-AL5</f>
+      <c r="AU5">
+        <f t="shared" si="16"/>
+        <v>3.9670999999999998E-2</v>
+      </c>
+      <c r="AV5" s="15">
+        <f t="shared" si="6"/>
         <v>6.2064000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="P6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="Q6" s="22">
@@ -1562,81 +1738,113 @@
         <v>-7.9472000000000001E-2</v>
       </c>
       <c r="S6" s="15">
-        <f>R6-Q6</f>
+        <f t="shared" si="8"/>
+        <v>-0.16888400000000001</v>
+      </c>
+      <c r="T6" s="15">
+        <f t="shared" si="0"/>
         <v>0.17882400000000004</v>
       </c>
-      <c r="T6" s="22">
+      <c r="U6" s="22">
         <v>-0.34565600000000002</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-0.21967800000000001</v>
       </c>
-      <c r="V6" s="15">
-        <f>U6-T6</f>
+      <c r="W6">
+        <f t="shared" si="9"/>
+        <v>-0.282667</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" si="1"/>
         <v>0.12597800000000001</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>8.7134000000000003E-2</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>6.0614000000000001E-2</v>
       </c>
-      <c r="Y6" s="15">
-        <f>X6-W6</f>
+      <c r="AA6">
+        <f t="shared" si="10"/>
+        <v>7.3873999999999995E-2</v>
+      </c>
+      <c r="AB6" s="15">
+        <f t="shared" si="2"/>
         <v>-2.6520000000000002E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>3.9179999999999996E-3</v>
       </c>
-      <c r="AA6">
+      <c r="AD6">
         <v>-1.4874999999999999E-2</v>
       </c>
-      <c r="AB6" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE6">
+        <f t="shared" si="11"/>
+        <v>-5.4784999999999999E-3</v>
+      </c>
+      <c r="AF6" s="15">
+        <f t="shared" si="12"/>
         <v>-1.8792999999999997E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AG6">
         <v>9.1269000000000003E-2</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>0.12825500000000001</v>
       </c>
-      <c r="AE6" s="15">
-        <f>AD6-AC6</f>
+      <c r="AI6">
+        <f t="shared" si="13"/>
+        <v>0.109762</v>
+      </c>
+      <c r="AJ6" s="15">
+        <f t="shared" si="3"/>
         <v>3.6986000000000005E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AK6">
         <v>0.118052</v>
       </c>
-      <c r="AG6">
+      <c r="AL6">
         <v>0.17574200000000001</v>
       </c>
-      <c r="AH6">
-        <f>AG6-AF6</f>
+      <c r="AM6">
+        <f t="shared" si="14"/>
+        <v>0.146897</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="4"/>
         <v>5.7690000000000005E-2</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AO6" s="22">
         <v>0.194524</v>
       </c>
-      <c r="AJ6">
+      <c r="AP6">
         <v>0.210281</v>
       </c>
-      <c r="AK6" s="15">
-        <f>AJ6-AI6</f>
+      <c r="AQ6">
+        <f t="shared" si="15"/>
+        <v>0.20240249999999999</v>
+      </c>
+      <c r="AR6" s="15">
+        <f t="shared" si="5"/>
         <v>1.5756999999999993E-2</v>
       </c>
-      <c r="AL6" s="22">
+      <c r="AS6" s="22">
         <v>0.154333</v>
       </c>
-      <c r="AM6">
+      <c r="AT6">
         <v>0.17183999999999999</v>
       </c>
-      <c r="AN6" s="15">
-        <f>AM6-AL6</f>
+      <c r="AU6">
+        <f t="shared" si="16"/>
+        <v>0.1630865</v>
+      </c>
+      <c r="AV6" s="15">
+        <f t="shared" si="6"/>
         <v>1.7506999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q7" s="22">
@@ -1678,81 +1886,113 @@
         <v>6.6807000000000005E-2</v>
       </c>
       <c r="S7" s="15">
-        <f>R7-Q7</f>
+        <f t="shared" si="8"/>
+        <v>-4.8294000000000004E-2</v>
+      </c>
+      <c r="T7" s="15">
+        <f t="shared" si="0"/>
         <v>0.23020200000000002</v>
       </c>
-      <c r="T7" s="22">
+      <c r="U7" s="22">
         <v>-0.192084</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-1.6109999999999999E-2</v>
       </c>
-      <c r="V7" s="15">
-        <f>U7-T7</f>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>-0.104097</v>
+      </c>
+      <c r="X7" s="15">
+        <f t="shared" si="1"/>
         <v>0.17597400000000002</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>-0.102829</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>-5.705E-3</v>
       </c>
-      <c r="Y7" s="15">
-        <f>X7-W7</f>
+      <c r="AA7">
+        <f t="shared" si="10"/>
+        <v>-5.4267000000000003E-2</v>
+      </c>
+      <c r="AB7" s="15">
+        <f t="shared" si="2"/>
         <v>9.7124000000000002E-2</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>-9.2687000000000005E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AD7">
         <v>7.8172000000000005E-2</v>
       </c>
-      <c r="AB7" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE7">
+        <f t="shared" si="11"/>
+        <v>-7.2575000000000001E-3</v>
+      </c>
+      <c r="AF7" s="15">
+        <f t="shared" si="12"/>
         <v>0.17085900000000001</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>-0.10992200000000001</v>
       </c>
-      <c r="AD7">
+      <c r="AH7">
         <v>-7.4576000000000003E-2</v>
       </c>
-      <c r="AE7" s="15">
-        <f>AD7-AC7</f>
+      <c r="AI7">
+        <f t="shared" si="13"/>
+        <v>-9.2248999999999998E-2</v>
+      </c>
+      <c r="AJ7" s="15">
+        <f t="shared" si="3"/>
         <v>3.5346000000000002E-2</v>
       </c>
-      <c r="AF7">
+      <c r="AK7">
         <v>1.2394000000000001E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AL7">
         <v>-1.1429E-2</v>
       </c>
-      <c r="AH7">
-        <f>AG7-AF7</f>
+      <c r="AM7">
+        <f t="shared" si="14"/>
+        <v>4.8250000000000029E-4</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="4"/>
         <v>-2.3823E-2</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AO7" s="22">
         <v>-7.0095000000000005E-2</v>
       </c>
-      <c r="AJ7">
+      <c r="AP7">
         <v>-1.325E-2</v>
       </c>
-      <c r="AK7" s="15">
-        <f>AJ7-AI7</f>
+      <c r="AQ7">
+        <f t="shared" si="15"/>
+        <v>-4.1672500000000001E-2</v>
+      </c>
+      <c r="AR7" s="15">
+        <f t="shared" si="5"/>
         <v>5.6845000000000007E-2</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AS7" s="22">
         <v>-6.8348000000000006E-2</v>
       </c>
-      <c r="AM7">
+      <c r="AT7">
         <v>-2.4538000000000001E-2</v>
       </c>
-      <c r="AN7" s="15">
-        <f>AM7-AL7</f>
+      <c r="AU7">
+        <f t="shared" si="16"/>
+        <v>-4.6443000000000005E-2</v>
+      </c>
+      <c r="AV7" s="15">
+        <f t="shared" si="6"/>
         <v>4.3810000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
@@ -1784,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8" s="22">
@@ -1794,81 +2034,113 @@
         <v>-4.9435E-2</v>
       </c>
       <c r="S8" s="15">
-        <f>R8-Q8</f>
+        <f t="shared" si="8"/>
+        <v>-9.0428000000000008E-2</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="0"/>
         <v>8.1986000000000003E-2</v>
       </c>
-      <c r="T8" s="22">
+      <c r="U8" s="22">
         <v>4.6022E-2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.102522</v>
       </c>
-      <c r="V8" s="15">
-        <f>U8-T8</f>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>7.4272000000000005E-2</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="1"/>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>-2.4506E-2</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="Y8" s="15">
-        <f>X8-W8</f>
+      <c r="AA8">
+        <f t="shared" si="10"/>
+        <v>-1.0533000000000001E-2</v>
+      </c>
+      <c r="AB8" s="15">
+        <f t="shared" si="2"/>
         <v>2.7945999999999999E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>3.5227000000000001E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AD8">
         <v>0.10079100000000001</v>
       </c>
-      <c r="AB8" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE8">
+        <f t="shared" si="11"/>
+        <v>6.8009E-2</v>
+      </c>
+      <c r="AF8" s="15">
+        <f t="shared" si="12"/>
         <v>6.5564000000000011E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>-5.646E-3</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>7.2881000000000001E-2</v>
       </c>
-      <c r="AE8" s="15">
-        <f>AD8-AC8</f>
+      <c r="AI8">
+        <f t="shared" si="13"/>
+        <v>3.3617500000000002E-2</v>
+      </c>
+      <c r="AJ8" s="15">
+        <f t="shared" si="3"/>
         <v>7.8527E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AK8">
         <v>3.0953000000000001E-2</v>
       </c>
-      <c r="AG8">
+      <c r="AL8">
         <v>0.19786000000000001</v>
       </c>
-      <c r="AH8">
-        <f>AG8-AF8</f>
+      <c r="AM8">
+        <f t="shared" si="14"/>
+        <v>0.11440650000000001</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="4"/>
         <v>0.166907</v>
       </c>
-      <c r="AI8" s="22">
+      <c r="AO8" s="22">
         <v>-9.2638999999999999E-2</v>
       </c>
-      <c r="AJ8">
+      <c r="AP8">
         <v>8.1949999999999995E-2</v>
       </c>
-      <c r="AK8" s="15">
-        <f>AJ8-AI8</f>
+      <c r="AQ8">
+        <f t="shared" si="15"/>
+        <v>-5.344500000000002E-3</v>
+      </c>
+      <c r="AR8" s="15">
+        <f t="shared" si="5"/>
         <v>0.17458899999999999</v>
       </c>
-      <c r="AL8" s="22">
+      <c r="AS8" s="22">
         <v>-7.9360000000000003E-3</v>
       </c>
-      <c r="AM8">
+      <c r="AT8">
         <v>0.132909</v>
       </c>
-      <c r="AN8" s="15">
-        <f>AM8-AL8</f>
+      <c r="AU8">
+        <f t="shared" si="16"/>
+        <v>6.24865E-2</v>
+      </c>
+      <c r="AV8" s="15">
+        <f t="shared" si="6"/>
         <v>0.140845</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -1900,7 +2172,7 @@
         <v>12</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="Q9" s="22">
@@ -1910,81 +2182,113 @@
         <v>5.3991999999999998E-2</v>
       </c>
       <c r="S9" s="15">
-        <f>R9-Q9</f>
+        <f t="shared" si="8"/>
+        <v>6.8541500000000005E-2</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="0"/>
         <v>-2.9099E-2</v>
       </c>
-      <c r="T9" s="22">
+      <c r="U9" s="22">
         <v>-4.5204000000000001E-2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1.8467000000000001E-2</v>
       </c>
-      <c r="V9" s="15">
-        <f>U9-T9</f>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>-1.33685E-2</v>
+      </c>
+      <c r="X9" s="15">
+        <f t="shared" si="1"/>
         <v>6.3671000000000005E-2</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>8.7328000000000003E-2</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>3.0273999999999999E-2</v>
       </c>
-      <c r="Y9" s="15">
-        <f>X9-W9</f>
+      <c r="AA9">
+        <f t="shared" si="10"/>
+        <v>5.8800999999999999E-2</v>
+      </c>
+      <c r="AB9" s="15">
+        <f t="shared" si="2"/>
         <v>-5.7054000000000007E-2</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>4.4574000000000003E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AD9">
         <v>7.3447999999999999E-2</v>
       </c>
-      <c r="AB9" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE9">
+        <f t="shared" si="11"/>
+        <v>5.9011000000000001E-2</v>
+      </c>
+      <c r="AF9" s="15">
+        <f t="shared" si="12"/>
         <v>2.8873999999999997E-2</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>-0.117303</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <v>6.9787000000000002E-2</v>
       </c>
-      <c r="AE9" s="15">
-        <f>AD9-AC9</f>
+      <c r="AI9">
+        <f t="shared" si="13"/>
+        <v>-2.3758000000000001E-2</v>
+      </c>
+      <c r="AJ9" s="15">
+        <f t="shared" si="3"/>
         <v>0.18709000000000001</v>
       </c>
-      <c r="AF9">
+      <c r="AK9">
         <v>-3.5751999999999999E-2</v>
       </c>
-      <c r="AG9">
+      <c r="AL9">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="AH9">
-        <f>AG9-AF9</f>
+      <c r="AM9">
+        <f t="shared" si="14"/>
+        <v>1.964500000000001E-3</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="4"/>
         <v>7.5433E-2</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AO9" s="22">
         <v>-3.4381000000000002E-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AP9">
         <v>4.0021000000000001E-2</v>
       </c>
-      <c r="AK9" s="15">
-        <f>AJ9-AI9</f>
+      <c r="AQ9">
+        <f t="shared" si="15"/>
+        <v>2.8199999999999996E-3</v>
+      </c>
+      <c r="AR9" s="15">
+        <f t="shared" si="5"/>
         <v>7.4401999999999996E-2</v>
       </c>
-      <c r="AL9" s="22">
+      <c r="AS9" s="22">
         <v>-4.823E-3</v>
       </c>
-      <c r="AM9">
+      <c r="AT9">
         <v>5.2283999999999997E-2</v>
       </c>
-      <c r="AN9" s="15">
-        <f>AM9-AL9</f>
+      <c r="AU9">
+        <f t="shared" si="16"/>
+        <v>2.3730499999999998E-2</v>
+      </c>
+      <c r="AV9" s="15">
+        <f t="shared" si="6"/>
         <v>5.7106999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
@@ -2016,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q10" s="22">
@@ -2026,81 +2330,113 @@
         <v>2.8681000000000002E-2</v>
       </c>
       <c r="S10" s="15">
-        <f>R10-Q10</f>
+        <f t="shared" si="8"/>
+        <v>3.8893999999999998E-2</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="0"/>
         <v>-2.0425999999999996E-2</v>
       </c>
-      <c r="T10" s="22">
+      <c r="U10" s="22">
         <v>-8.5933999999999996E-2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-0.18237999999999999</v>
       </c>
-      <c r="V10" s="15">
-        <f>U10-T10</f>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>-0.134157</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="1"/>
         <v>-9.644599999999999E-2</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>8.7159999999999998E-3</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>1.0061E-2</v>
       </c>
-      <c r="Y10" s="15">
-        <f>X10-W10</f>
+      <c r="AA10">
+        <f t="shared" si="10"/>
+        <v>9.388500000000001E-3</v>
+      </c>
+      <c r="AB10" s="15">
+        <f t="shared" si="2"/>
         <v>1.3450000000000007E-3</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <v>6.5639000000000003E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AD10">
         <v>3.0689999999999999E-2</v>
       </c>
-      <c r="AB10" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE10">
+        <f t="shared" si="11"/>
+        <v>4.8164499999999999E-2</v>
+      </c>
+      <c r="AF10" s="15">
+        <f t="shared" si="12"/>
         <v>-3.4949000000000008E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AG10">
         <v>-0.20017199999999999</v>
       </c>
-      <c r="AD10">
+      <c r="AH10">
         <v>-0.18756100000000001</v>
       </c>
-      <c r="AE10" s="15">
-        <f>AD10-AC10</f>
+      <c r="AI10">
+        <f t="shared" si="13"/>
+        <v>-0.1938665</v>
+      </c>
+      <c r="AJ10" s="15">
+        <f t="shared" si="3"/>
         <v>1.2610999999999983E-2</v>
       </c>
-      <c r="AF10">
+      <c r="AK10">
         <v>-9.4769000000000006E-2</v>
       </c>
-      <c r="AG10">
+      <c r="AL10">
         <v>3.3930000000000002E-2</v>
       </c>
-      <c r="AH10">
-        <f>AG10-AF10</f>
+      <c r="AM10">
+        <f t="shared" si="14"/>
+        <v>-3.0419500000000002E-2</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="4"/>
         <v>0.12869900000000001</v>
       </c>
-      <c r="AI10" s="22">
+      <c r="AO10" s="22">
         <v>-3.4209999999999997E-2</v>
       </c>
-      <c r="AJ10">
+      <c r="AP10">
         <v>-8.2423999999999997E-2</v>
       </c>
-      <c r="AK10" s="15">
-        <f>AJ10-AI10</f>
+      <c r="AQ10">
+        <f t="shared" si="15"/>
+        <v>-5.8316999999999994E-2</v>
+      </c>
+      <c r="AR10" s="15">
+        <f t="shared" si="5"/>
         <v>-4.8214E-2</v>
       </c>
-      <c r="AL10" s="22">
+      <c r="AS10" s="22">
         <v>-7.5482999999999995E-2</v>
       </c>
-      <c r="AM10">
+      <c r="AT10">
         <v>-5.8012000000000001E-2</v>
       </c>
-      <c r="AN10" s="15">
-        <f>AM10-AL10</f>
+      <c r="AU10">
+        <f t="shared" si="16"/>
+        <v>-6.6747500000000001E-2</v>
+      </c>
+      <c r="AV10" s="15">
+        <f t="shared" si="6"/>
         <v>1.7470999999999993E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2132,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="Q11" s="22">
@@ -2142,81 +2478,113 @@
         <v>0.15373800000000001</v>
       </c>
       <c r="S11" s="15">
-        <f>R11-Q11</f>
+        <f t="shared" si="8"/>
+        <v>4.9137500000000008E-2</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="0"/>
         <v>0.20920100000000003</v>
       </c>
-      <c r="T11" s="22">
+      <c r="U11" s="22">
         <v>-6.019E-3</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.123721</v>
       </c>
-      <c r="V11" s="15">
-        <f>U11-T11</f>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>5.8851000000000001E-2</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="1"/>
         <v>0.12973999999999999</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>-0.31575900000000001</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>-5.3365000000000003E-2</v>
       </c>
-      <c r="Y11" s="15">
-        <f>X11-W11</f>
+      <c r="AA11">
+        <f t="shared" si="10"/>
+        <v>-0.184562</v>
+      </c>
+      <c r="AB11" s="15">
+        <f t="shared" si="2"/>
         <v>0.26239400000000002</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>-0.15962899999999999</v>
       </c>
-      <c r="AA11">
+      <c r="AD11">
         <v>-2.0787E-2</v>
       </c>
-      <c r="AB11" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE11">
+        <f t="shared" si="11"/>
+        <v>-9.0207999999999997E-2</v>
+      </c>
+      <c r="AF11" s="15">
+        <f t="shared" si="12"/>
         <v>0.13884199999999999</v>
       </c>
-      <c r="AC11">
+      <c r="AG11">
         <v>-9.8692000000000002E-2</v>
       </c>
-      <c r="AD11">
+      <c r="AH11">
         <v>-5.2871000000000001E-2</v>
       </c>
-      <c r="AE11" s="15">
-        <f>AD11-AC11</f>
+      <c r="AI11">
+        <f t="shared" si="13"/>
+        <v>-7.5781500000000002E-2</v>
+      </c>
+      <c r="AJ11" s="15">
+        <f t="shared" si="3"/>
         <v>4.5821000000000001E-2</v>
       </c>
-      <c r="AF11">
+      <c r="AK11">
         <v>6.7863000000000007E-2</v>
       </c>
-      <c r="AG11">
+      <c r="AL11">
         <v>0.12706000000000001</v>
       </c>
-      <c r="AH11">
-        <f>AG11-AF11</f>
+      <c r="AM11">
+        <f t="shared" si="14"/>
+        <v>9.7461500000000006E-2</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="4"/>
         <v>5.9197E-2</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AO11" s="22">
         <v>-1.6175999999999999E-2</v>
       </c>
-      <c r="AJ11">
+      <c r="AP11">
         <v>0.117577</v>
       </c>
-      <c r="AK11" s="15">
-        <f>AJ11-AI11</f>
+      <c r="AQ11">
+        <f t="shared" si="15"/>
+        <v>5.0700500000000003E-2</v>
+      </c>
+      <c r="AR11" s="15">
+        <f t="shared" si="5"/>
         <v>0.13375300000000001</v>
       </c>
-      <c r="AL11" s="22">
+      <c r="AS11" s="22">
         <v>-4.3059E-2</v>
       </c>
-      <c r="AM11">
+      <c r="AT11">
         <v>9.4061000000000006E-2</v>
       </c>
-      <c r="AN11" s="15">
-        <f>AM11-AL11</f>
+      <c r="AU11">
+        <f t="shared" si="16"/>
+        <v>2.5501000000000003E-2</v>
+      </c>
+      <c r="AV11" s="15">
+        <f t="shared" si="6"/>
         <v>0.13712000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
@@ -2248,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q12" s="22">
@@ -2258,81 +2626,113 @@
         <v>-6.7613000000000006E-2</v>
       </c>
       <c r="S12" s="15">
-        <f>R12-Q12</f>
+        <f t="shared" si="8"/>
+        <v>-0.1029265</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="0"/>
         <v>7.0626999999999995E-2</v>
       </c>
-      <c r="T12" s="22">
+      <c r="U12" s="22">
         <v>-0.33188800000000002</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-0.12595500000000001</v>
       </c>
-      <c r="V12" s="15">
-        <f>U12-T12</f>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>-0.2289215</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="1"/>
         <v>0.205933</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>-0.13494</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>-7.7329999999999996E-2</v>
       </c>
-      <c r="Y12" s="15">
-        <f>X12-W12</f>
+      <c r="AA12">
+        <f t="shared" si="10"/>
+        <v>-0.10613500000000001</v>
+      </c>
+      <c r="AB12" s="15">
+        <f t="shared" si="2"/>
         <v>5.7610000000000008E-2</v>
       </c>
-      <c r="Z12">
+      <c r="AC12">
         <v>-0.138872</v>
       </c>
-      <c r="AA12">
+      <c r="AD12">
         <v>-2.4535000000000001E-2</v>
       </c>
-      <c r="AB12" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE12">
+        <f t="shared" si="11"/>
+        <v>-8.1703499999999998E-2</v>
+      </c>
+      <c r="AF12" s="15">
+        <f t="shared" si="12"/>
         <v>0.11433699999999999</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>0.28608899999999998</v>
       </c>
-      <c r="AD12">
+      <c r="AH12">
         <v>0.128694</v>
       </c>
-      <c r="AE12" s="15">
-        <f>AD12-AC12</f>
+      <c r="AI12">
+        <f t="shared" si="13"/>
+        <v>0.20739150000000001</v>
+      </c>
+      <c r="AJ12" s="15">
+        <f t="shared" si="3"/>
         <v>-0.15739499999999998</v>
       </c>
-      <c r="AF12">
+      <c r="AK12">
         <v>6.7775000000000002E-2</v>
       </c>
-      <c r="AG12">
+      <c r="AL12">
         <v>3.6677000000000001E-2</v>
       </c>
-      <c r="AH12">
-        <f>AG12-AF12</f>
+      <c r="AM12">
+        <f t="shared" si="14"/>
+        <v>5.2226000000000002E-2</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="4"/>
         <v>-3.1098000000000001E-2</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AO12" s="22">
         <v>6.3053999999999999E-2</v>
       </c>
-      <c r="AJ12">
+      <c r="AP12">
         <v>0.215258</v>
       </c>
-      <c r="AK12" s="15">
-        <f>AJ12-AI12</f>
+      <c r="AQ12">
+        <f t="shared" si="15"/>
+        <v>0.139156</v>
+      </c>
+      <c r="AR12" s="15">
+        <f t="shared" si="5"/>
         <v>0.15220400000000001</v>
       </c>
-      <c r="AL12" s="22">
+      <c r="AS12" s="22">
         <v>4.6105E-2</v>
       </c>
-      <c r="AM12">
+      <c r="AT12">
         <v>0.137603</v>
       </c>
-      <c r="AN12" s="15">
-        <f>AM12-AL12</f>
+      <c r="AU12">
+        <f t="shared" si="16"/>
+        <v>9.1854000000000005E-2</v>
+      </c>
+      <c r="AV12" s="15">
+        <f t="shared" si="6"/>
         <v>9.1497999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>44</v>
       </c>
@@ -2364,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="P13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="Q13" s="22">
@@ -2374,81 +2774,113 @@
         <v>0.12812999999999999</v>
       </c>
       <c r="S13" s="15">
-        <f>R13-Q13</f>
+        <f t="shared" si="8"/>
+        <v>-0.130133</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="0"/>
         <v>0.51652600000000004</v>
       </c>
-      <c r="T13" s="22">
+      <c r="U13" s="22">
         <v>-0.15731800000000001</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.20866000000000001</v>
       </c>
-      <c r="V13" s="15">
-        <f>U13-T13</f>
+      <c r="W13">
+        <f t="shared" si="9"/>
+        <v>2.5670999999999999E-2</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" si="1"/>
         <v>0.36597800000000003</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>-0.28307199999999999</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>9.3473000000000001E-2</v>
       </c>
-      <c r="Y13" s="15">
-        <f>X13-W13</f>
+      <c r="AA13">
+        <f t="shared" si="10"/>
+        <v>-9.4799499999999995E-2</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" si="2"/>
         <v>0.37654500000000002</v>
       </c>
-      <c r="Z13">
+      <c r="AC13">
         <v>-0.17643600000000001</v>
       </c>
-      <c r="AA13">
+      <c r="AD13">
         <v>0.11176899999999999</v>
       </c>
-      <c r="AB13" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE13">
+        <f t="shared" si="11"/>
+        <v>-3.2333500000000008E-2</v>
+      </c>
+      <c r="AF13" s="15">
+        <f t="shared" si="12"/>
         <v>0.28820499999999999</v>
       </c>
-      <c r="AC13">
+      <c r="AG13">
         <v>-0.234845</v>
       </c>
-      <c r="AD13">
+      <c r="AH13">
         <v>7.8531000000000004E-2</v>
       </c>
-      <c r="AE13" s="15">
-        <f>AD13-AC13</f>
+      <c r="AI13">
+        <f t="shared" si="13"/>
+        <v>-7.8157000000000004E-2</v>
+      </c>
+      <c r="AJ13" s="15">
+        <f t="shared" si="3"/>
         <v>0.31337599999999999</v>
       </c>
-      <c r="AF13">
+      <c r="AK13">
         <v>-0.13272600000000001</v>
       </c>
-      <c r="AG13">
+      <c r="AL13">
         <v>0.11221399999999999</v>
       </c>
-      <c r="AH13">
-        <f>AG13-AF13</f>
+      <c r="AM13">
+        <f t="shared" si="14"/>
+        <v>-1.0256000000000008E-2</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="4"/>
         <v>0.24493999999999999</v>
       </c>
-      <c r="AI13" s="22">
+      <c r="AO13" s="22">
         <v>-0.33115699999999998</v>
       </c>
-      <c r="AJ13">
+      <c r="AP13">
         <v>-0.11538</v>
       </c>
-      <c r="AK13" s="15">
-        <f>AJ13-AI13</f>
+      <c r="AQ13">
+        <f t="shared" si="15"/>
+        <v>-0.22326849999999998</v>
+      </c>
+      <c r="AR13" s="15">
+        <f t="shared" si="5"/>
         <v>0.215777</v>
       </c>
-      <c r="AL13" s="22">
+      <c r="AS13" s="22">
         <v>-0.25545400000000001</v>
       </c>
-      <c r="AM13">
+      <c r="AT13">
         <v>8.3829999999999998E-3</v>
       </c>
-      <c r="AN13" s="15">
-        <f>AM13-AL13</f>
+      <c r="AU13">
+        <f t="shared" si="16"/>
+        <v>-0.12353550000000001</v>
+      </c>
+      <c r="AV13" s="15">
+        <f t="shared" si="6"/>
         <v>0.26383699999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>46</v>
       </c>
@@ -2480,7 +2912,7 @@
         <v>8</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Q14" s="22">
@@ -2490,81 +2922,113 @@
         <v>9.7069000000000003E-2</v>
       </c>
       <c r="S14" s="15">
-        <f>R14-Q14</f>
+        <f t="shared" si="8"/>
+        <v>-7.025499999999997E-3</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="0"/>
         <v>0.20818900000000001</v>
       </c>
-      <c r="T14" s="22">
+      <c r="U14" s="22">
         <v>-5.3636000000000003E-2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.110414</v>
       </c>
-      <c r="V14" s="15">
-        <f>U14-T14</f>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>2.8388999999999998E-2</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="1"/>
         <v>0.16405</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>-2.4698999999999999E-2</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>1.1417E-2</v>
       </c>
-      <c r="Y14" s="15">
-        <f>X14-W14</f>
+      <c r="AA14">
+        <f t="shared" si="10"/>
+        <v>-6.6409999999999993E-3</v>
+      </c>
+      <c r="AB14" s="15">
+        <f t="shared" si="2"/>
         <v>3.6115999999999995E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AC14">
         <v>5.0214000000000002E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AD14">
         <v>5.8465000000000003E-2</v>
       </c>
-      <c r="AB14" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE14">
+        <f t="shared" si="11"/>
+        <v>5.4339499999999999E-2</v>
+      </c>
+      <c r="AF14" s="15">
+        <f t="shared" si="12"/>
         <v>8.2510000000000014E-3</v>
       </c>
-      <c r="AC14">
+      <c r="AG14">
         <v>6.4426999999999998E-2</v>
       </c>
-      <c r="AD14">
+      <c r="AH14">
         <v>0.10111000000000001</v>
       </c>
-      <c r="AE14" s="15">
-        <f>AD14-AC14</f>
+      <c r="AI14">
+        <f t="shared" si="13"/>
+        <v>8.2768499999999995E-2</v>
+      </c>
+      <c r="AJ14" s="15">
+        <f t="shared" si="3"/>
         <v>3.6683000000000007E-2</v>
       </c>
-      <c r="AF14">
+      <c r="AK14">
         <v>2.0008000000000001E-2</v>
       </c>
-      <c r="AG14">
+      <c r="AL14">
         <v>0.19539500000000001</v>
       </c>
-      <c r="AH14">
-        <f>AG14-AF14</f>
+      <c r="AM14">
+        <f t="shared" si="14"/>
+        <v>0.10770150000000001</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="4"/>
         <v>0.17538700000000002</v>
       </c>
-      <c r="AI14" s="22">
+      <c r="AO14" s="22">
         <v>1.7904E-2</v>
       </c>
-      <c r="AJ14">
+      <c r="AP14">
         <v>3.7615000000000003E-2</v>
       </c>
-      <c r="AK14" s="15">
-        <f>AJ14-AI14</f>
+      <c r="AQ14">
+        <f t="shared" si="15"/>
+        <v>2.7759499999999999E-2</v>
+      </c>
+      <c r="AR14" s="15">
+        <f t="shared" si="5"/>
         <v>1.9711000000000003E-2</v>
       </c>
-      <c r="AL14" s="22">
+      <c r="AS14" s="22">
         <v>4.6669000000000002E-2</v>
       </c>
-      <c r="AM14">
+      <c r="AT14">
         <v>8.4153000000000006E-2</v>
       </c>
-      <c r="AN14" s="15">
-        <f>AM14-AL14</f>
+      <c r="AU14">
+        <f t="shared" si="16"/>
+        <v>6.5410999999999997E-2</v>
+      </c>
+      <c r="AV14" s="15">
+        <f t="shared" si="6"/>
         <v>3.7484000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>48</v>
       </c>
@@ -2596,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Q15" s="22">
@@ -2606,81 +3070,113 @@
         <v>6.0309000000000001E-2</v>
       </c>
       <c r="S15" s="15">
-        <f>R15-Q15</f>
+        <f t="shared" si="8"/>
+        <v>3.5070500000000004E-2</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="0"/>
         <v>5.0477000000000001E-2</v>
       </c>
-      <c r="T15" s="22">
+      <c r="U15" s="22">
         <v>0.18918499999999999</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.11498899999999999</v>
       </c>
-      <c r="V15" s="15">
-        <f>U15-T15</f>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>0.152087</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="1"/>
         <v>-7.4195999999999998E-2</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>6.3926999999999998E-2</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.22964499999999999</v>
       </c>
-      <c r="Y15" s="15">
-        <f>X15-W15</f>
+      <c r="AA15">
+        <f t="shared" si="10"/>
+        <v>0.146786</v>
+      </c>
+      <c r="AB15" s="15">
+        <f t="shared" si="2"/>
         <v>0.16571799999999998</v>
       </c>
-      <c r="Z15">
+      <c r="AC15">
         <v>6.3673999999999994E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AD15">
         <v>0.23819199999999999</v>
       </c>
-      <c r="AB15" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE15">
+        <f t="shared" si="11"/>
+        <v>0.15093299999999998</v>
+      </c>
+      <c r="AF15" s="15">
+        <f t="shared" si="12"/>
         <v>0.17451800000000001</v>
       </c>
-      <c r="AC15">
+      <c r="AG15">
         <v>1.7017999999999998E-2</v>
       </c>
-      <c r="AD15">
+      <c r="AH15">
         <v>2.6889E-2</v>
       </c>
-      <c r="AE15" s="15">
-        <f>AD15-AC15</f>
+      <c r="AI15">
+        <f t="shared" si="13"/>
+        <v>2.1953500000000001E-2</v>
+      </c>
+      <c r="AJ15" s="15">
+        <f t="shared" si="3"/>
         <v>9.8710000000000013E-3</v>
       </c>
-      <c r="AF15">
+      <c r="AK15">
         <v>-9.9944000000000005E-2</v>
       </c>
-      <c r="AG15">
+      <c r="AL15">
         <v>-4.7113000000000002E-2</v>
       </c>
-      <c r="AH15">
-        <f>AG15-AF15</f>
+      <c r="AM15">
+        <f t="shared" si="14"/>
+        <v>-7.3528499999999997E-2</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="4"/>
         <v>5.2831000000000003E-2</v>
       </c>
-      <c r="AI15" s="22">
+      <c r="AO15" s="22">
         <v>3.1689000000000002E-2</v>
       </c>
-      <c r="AJ15">
+      <c r="AP15">
         <v>5.5965000000000001E-2</v>
       </c>
-      <c r="AK15" s="15">
-        <f>AJ15-AI15</f>
+      <c r="AQ15">
+        <f t="shared" si="15"/>
+        <v>4.3827000000000005E-2</v>
+      </c>
+      <c r="AR15" s="15">
+        <f t="shared" si="5"/>
         <v>2.4275999999999999E-2</v>
       </c>
-      <c r="AL15" s="22">
+      <c r="AS15" s="22">
         <v>8.5344000000000003E-2</v>
       </c>
-      <c r="AM15">
+      <c r="AT15">
         <v>0.13961200000000001</v>
       </c>
-      <c r="AN15" s="15">
-        <f>AM15-AL15</f>
+      <c r="AU15">
+        <f t="shared" si="16"/>
+        <v>0.11247800000000001</v>
+      </c>
+      <c r="AV15" s="15">
+        <f t="shared" si="6"/>
         <v>5.4268000000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -2712,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q16" s="22">
@@ -2722,81 +3218,113 @@
         <v>9.3939999999999996E-3</v>
       </c>
       <c r="S16" s="15">
-        <f>R16-Q16</f>
+        <f t="shared" si="8"/>
+        <v>-2.1665500000000001E-2</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="0"/>
         <v>6.2119000000000001E-2</v>
       </c>
-      <c r="T16" s="22">
+      <c r="U16" s="22">
         <v>-3.0328999999999998E-2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.116038</v>
       </c>
-      <c r="V16" s="15">
-        <f>U16-T16</f>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>4.2854500000000004E-2</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="1"/>
         <v>0.146367</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>-0.10734399999999999</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>-6.8446000000000007E-2</v>
       </c>
-      <c r="Y16" s="15">
-        <f>X16-W16</f>
+      <c r="AA16">
+        <f t="shared" si="10"/>
+        <v>-8.7895000000000001E-2</v>
+      </c>
+      <c r="AB16" s="15">
+        <f t="shared" si="2"/>
         <v>3.8897999999999988E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AC16">
         <v>-5.1285999999999998E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AD16">
         <v>1.9552E-2</v>
       </c>
-      <c r="AB16" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE16">
+        <f t="shared" si="11"/>
+        <v>-1.5866999999999999E-2</v>
+      </c>
+      <c r="AF16" s="15">
+        <f t="shared" si="12"/>
         <v>7.0837999999999998E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AG16">
         <v>3.5961E-2</v>
       </c>
-      <c r="AD16">
+      <c r="AH16">
         <v>0.21001400000000001</v>
       </c>
-      <c r="AE16" s="15">
-        <f>AD16-AC16</f>
+      <c r="AI16">
+        <f t="shared" si="13"/>
+        <v>0.1229875</v>
+      </c>
+      <c r="AJ16" s="15">
+        <f t="shared" si="3"/>
         <v>0.17405300000000001</v>
       </c>
-      <c r="AF16">
+      <c r="AK16">
         <v>9.8876000000000006E-2</v>
       </c>
-      <c r="AG16">
+      <c r="AL16">
         <v>0.143349</v>
       </c>
-      <c r="AH16">
-        <f>AG16-AF16</f>
+      <c r="AM16">
+        <f t="shared" si="14"/>
+        <v>0.12111250000000001</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="4"/>
         <v>4.4472999999999999E-2</v>
       </c>
-      <c r="AI16" s="22">
+      <c r="AO16" s="22">
         <v>9.1829999999999995E-2</v>
       </c>
-      <c r="AJ16">
+      <c r="AP16">
         <v>6.5917000000000003E-2</v>
       </c>
-      <c r="AK16" s="15">
-        <f>AJ16-AI16</f>
+      <c r="AQ16">
+        <f t="shared" si="15"/>
+        <v>7.8873499999999999E-2</v>
+      </c>
+      <c r="AR16" s="15">
+        <f t="shared" si="5"/>
         <v>-2.5912999999999992E-2</v>
       </c>
-      <c r="AL16" s="22">
+      <c r="AS16" s="22">
         <v>4.2819000000000003E-2</v>
       </c>
-      <c r="AM16">
+      <c r="AT16">
         <v>7.9843999999999998E-2</v>
       </c>
-      <c r="AN16" s="15">
-        <f>AM16-AL16</f>
+      <c r="AU16">
+        <f t="shared" si="16"/>
+        <v>6.1331499999999997E-2</v>
+      </c>
+      <c r="AV16" s="15">
+        <f t="shared" si="6"/>
         <v>3.7024999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>49</v>
       </c>
@@ -2828,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="22">
@@ -2838,81 +3366,113 @@
         <v>-0.101994</v>
       </c>
       <c r="S17" s="15">
-        <f>R17-Q17</f>
+        <f t="shared" si="8"/>
+        <v>-0.2018875</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="0"/>
         <v>0.19978700000000002</v>
       </c>
-      <c r="T17" s="22">
+      <c r="U17" s="22">
         <v>-1.1540000000000001E-3</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-2.9968999999999999E-2</v>
       </c>
-      <c r="V17" s="15">
-        <f>U17-T17</f>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>-1.5561499999999999E-2</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="1"/>
         <v>-2.8815E-2</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>-9.3715999999999994E-2</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>-4.2680000000000003E-2</v>
       </c>
-      <c r="Y17" s="15">
-        <f>X17-W17</f>
+      <c r="AA17">
+        <f t="shared" si="10"/>
+        <v>-6.8197999999999995E-2</v>
+      </c>
+      <c r="AB17" s="15">
+        <f t="shared" si="2"/>
         <v>5.1035999999999991E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AC17">
         <v>1.4598E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AD17">
         <v>6.6969999999999998E-3</v>
       </c>
-      <c r="AB17" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE17">
+        <f t="shared" si="11"/>
+        <v>1.0647500000000001E-2</v>
+      </c>
+      <c r="AF17" s="15">
+        <f t="shared" si="12"/>
         <v>-7.901E-3</v>
       </c>
-      <c r="AC17">
+      <c r="AG17">
         <v>-0.26075799999999999</v>
       </c>
-      <c r="AD17">
+      <c r="AH17">
         <v>-0.123182</v>
       </c>
-      <c r="AE17" s="15">
-        <f>AD17-AC17</f>
+      <c r="AI17">
+        <f t="shared" si="13"/>
+        <v>-0.19197</v>
+      </c>
+      <c r="AJ17" s="15">
+        <f t="shared" si="3"/>
         <v>0.13757599999999998</v>
       </c>
-      <c r="AF17">
+      <c r="AK17">
         <v>-9.4880999999999993E-2</v>
       </c>
-      <c r="AG17">
+      <c r="AL17">
         <v>-8.4975999999999996E-2</v>
       </c>
-      <c r="AH17">
-        <f>AG17-AF17</f>
+      <c r="AM17">
+        <f t="shared" si="14"/>
+        <v>-8.9928499999999995E-2</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="4"/>
         <v>9.9049999999999971E-3</v>
       </c>
-      <c r="AI17" s="22">
+      <c r="AO17" s="22">
         <v>-5.3668E-2</v>
       </c>
-      <c r="AJ17">
+      <c r="AP17">
         <v>-0.140128</v>
       </c>
-      <c r="AK17" s="15">
-        <f>AJ17-AI17</f>
+      <c r="AQ17">
+        <f t="shared" si="15"/>
+        <v>-9.6897999999999998E-2</v>
+      </c>
+      <c r="AR17" s="15">
+        <f t="shared" si="5"/>
         <v>-8.6460000000000009E-2</v>
       </c>
-      <c r="AL17" s="22">
+      <c r="AS17" s="22">
         <v>-6.9585999999999995E-2</v>
       </c>
-      <c r="AM17">
+      <c r="AT17">
         <v>-0.186363</v>
       </c>
-      <c r="AN17" s="15">
-        <f>AM17-AL17</f>
+      <c r="AU17">
+        <f t="shared" si="16"/>
+        <v>-0.12797449999999999</v>
+      </c>
+      <c r="AV17" s="15">
+        <f t="shared" si="6"/>
         <v>-0.11677700000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>51</v>
       </c>
@@ -2944,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="P18" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="Q18" s="22">
@@ -2954,81 +3514,113 @@
         <v>6.2269999999999999E-3</v>
       </c>
       <c r="S18" s="15">
-        <f>R18-Q18</f>
+        <f t="shared" si="8"/>
+        <v>2.9545500000000002E-2</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="0"/>
         <v>-4.6636999999999998E-2</v>
       </c>
-      <c r="T18" s="22">
+      <c r="U18" s="22">
         <v>8.4306000000000006E-2</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-5.7305000000000002E-2</v>
       </c>
-      <c r="V18" s="15">
-        <f>U18-T18</f>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>1.3500500000000002E-2</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="1"/>
         <v>-0.14161100000000001</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>-3.8386999999999998E-2</v>
       </c>
-      <c r="Y18" s="15">
-        <f>X18-W18</f>
+      <c r="AA18">
+        <f t="shared" si="10"/>
+        <v>1.5301499999999999E-2</v>
+      </c>
+      <c r="AB18" s="15">
+        <f t="shared" si="2"/>
         <v>-0.107377</v>
       </c>
-      <c r="Z18">
+      <c r="AC18">
         <v>8.5816000000000003E-2</v>
       </c>
-      <c r="AA18">
+      <c r="AD18">
         <v>4.1669999999999997E-3</v>
       </c>
-      <c r="AB18" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE18">
+        <f t="shared" si="11"/>
+        <v>4.4991500000000004E-2</v>
+      </c>
+      <c r="AF18" s="15">
+        <f t="shared" si="12"/>
         <v>-8.1648999999999999E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="AD18">
+      <c r="AH18">
         <v>0.22051399999999999</v>
       </c>
-      <c r="AE18" s="15">
-        <f>AD18-AC18</f>
+      <c r="AI18">
+        <f t="shared" si="13"/>
+        <v>0.132192</v>
+      </c>
+      <c r="AJ18" s="15">
+        <f t="shared" si="3"/>
         <v>0.176644</v>
       </c>
-      <c r="AF18">
+      <c r="AK18">
         <v>8.4360000000000008E-3</v>
       </c>
-      <c r="AG18">
+      <c r="AL18">
         <v>0.21227699999999999</v>
       </c>
-      <c r="AH18">
-        <f>AG18-AF18</f>
+      <c r="AM18">
+        <f t="shared" si="14"/>
+        <v>0.1103565</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="4"/>
         <v>0.20384099999999999</v>
       </c>
-      <c r="AI18" s="22">
+      <c r="AO18" s="22">
         <v>3.2371999999999998E-2</v>
       </c>
-      <c r="AJ18">
+      <c r="AP18">
         <v>0.141262</v>
       </c>
-      <c r="AK18" s="15">
-        <f>AJ18-AI18</f>
+      <c r="AQ18">
+        <f t="shared" si="15"/>
+        <v>8.6817000000000005E-2</v>
+      </c>
+      <c r="AR18" s="15">
+        <f t="shared" si="5"/>
         <v>0.10889</v>
       </c>
-      <c r="AL18" s="22">
+      <c r="AS18" s="22">
         <v>3.6924999999999999E-2</v>
       </c>
-      <c r="AM18">
+      <c r="AT18">
         <v>0.131714</v>
       </c>
-      <c r="AN18" s="15">
-        <f>AM18-AL18</f>
+      <c r="AU18">
+        <f t="shared" si="16"/>
+        <v>8.4319499999999992E-2</v>
+      </c>
+      <c r="AV18" s="15">
+        <f t="shared" si="6"/>
         <v>9.4788999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>50</v>
       </c>
@@ -3060,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q19" s="22">
@@ -3070,81 +3662,113 @@
         <v>-3.5672000000000002E-2</v>
       </c>
       <c r="S19" s="15">
-        <f>R19-Q19</f>
+        <f t="shared" si="8"/>
+        <v>-5.9536500000000006E-2</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="0"/>
         <v>4.7729000000000001E-2</v>
       </c>
-      <c r="T19" s="22">
+      <c r="U19" s="22">
         <v>-3.5095000000000001E-2</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>7.6295000000000002E-2</v>
       </c>
-      <c r="V19" s="15">
-        <f>U19-T19</f>
+      <c r="W19">
+        <f t="shared" si="9"/>
+        <v>2.06E-2</v>
+      </c>
+      <c r="X19" s="15">
+        <f t="shared" si="1"/>
         <v>0.11139</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>6.3425999999999996E-2</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>5.1610000000000003E-2</v>
       </c>
-      <c r="Y19" s="15">
-        <f>X19-W19</f>
+      <c r="AA19">
+        <f t="shared" si="10"/>
+        <v>5.7518E-2</v>
+      </c>
+      <c r="AB19" s="15">
+        <f t="shared" si="2"/>
         <v>-1.1815999999999993E-2</v>
       </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>2.6165999999999998E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AD19">
         <v>8.0058000000000004E-2</v>
       </c>
-      <c r="AB19" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE19">
+        <f t="shared" si="11"/>
+        <v>5.3111999999999999E-2</v>
+      </c>
+      <c r="AF19" s="15">
+        <f t="shared" si="12"/>
         <v>5.3892000000000009E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AG19">
         <v>0.14959800000000001</v>
       </c>
-      <c r="AD19">
+      <c r="AH19">
         <v>0.110315</v>
       </c>
-      <c r="AE19" s="15">
-        <f>AD19-AC19</f>
+      <c r="AI19">
+        <f t="shared" si="13"/>
+        <v>0.1299565</v>
+      </c>
+      <c r="AJ19" s="15">
+        <f t="shared" si="3"/>
         <v>-3.9283000000000012E-2</v>
       </c>
-      <c r="AF19">
+      <c r="AK19">
         <v>0.27354899999999999</v>
       </c>
-      <c r="AG19">
+      <c r="AL19">
         <v>9.5028000000000001E-2</v>
       </c>
-      <c r="AH19">
-        <f>AG19-AF19</f>
+      <c r="AM19">
+        <f t="shared" si="14"/>
+        <v>0.18428849999999999</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="4"/>
         <v>-0.17852099999999999</v>
       </c>
-      <c r="AI19" s="22">
+      <c r="AO19" s="22">
         <v>9.8251000000000005E-2</v>
       </c>
-      <c r="AJ19">
+      <c r="AP19">
         <v>4.7572000000000003E-2</v>
       </c>
-      <c r="AK19" s="15">
-        <f>AJ19-AI19</f>
+      <c r="AQ19">
+        <f t="shared" si="15"/>
+        <v>7.2911500000000004E-2</v>
+      </c>
+      <c r="AR19" s="15">
+        <f t="shared" si="5"/>
         <v>-5.0679000000000002E-2</v>
       </c>
-      <c r="AL19" s="22">
+      <c r="AS19" s="22">
         <v>0.15524299999999999</v>
       </c>
-      <c r="AM19">
+      <c r="AT19">
         <v>-3.0850000000000001E-3</v>
       </c>
-      <c r="AN19" s="15">
-        <f>AM19-AL19</f>
+      <c r="AU19">
+        <f t="shared" si="16"/>
+        <v>7.6078999999999994E-2</v>
+      </c>
+      <c r="AV19" s="15">
+        <f t="shared" si="6"/>
         <v>-0.158328</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>52</v>
       </c>
@@ -3176,7 +3800,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q20" s="22">
@@ -3186,81 +3810,113 @@
         <v>-1.4454E-2</v>
       </c>
       <c r="S20" s="15">
-        <f>R20-Q20</f>
+        <f t="shared" si="8"/>
+        <v>-1.00555E-2</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="0"/>
         <v>-8.7969999999999993E-3</v>
       </c>
-      <c r="T20" s="22">
+      <c r="U20" s="22">
         <v>2.7300999999999999E-2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>5.6370999999999997E-2</v>
       </c>
-      <c r="V20" s="15">
-        <f>U20-T20</f>
+      <c r="W20">
+        <f t="shared" si="9"/>
+        <v>4.1835999999999998E-2</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" si="1"/>
         <v>2.9069999999999999E-2</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>-6.2890000000000003E-3</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>5.4892999999999997E-2</v>
       </c>
-      <c r="Y20" s="15">
-        <f>X20-W20</f>
+      <c r="AA20">
+        <f t="shared" si="10"/>
+        <v>2.4301999999999997E-2</v>
+      </c>
+      <c r="AB20" s="15">
+        <f t="shared" si="2"/>
         <v>6.1182E-2</v>
       </c>
-      <c r="Z20">
+      <c r="AC20">
         <v>-2.7833E-2</v>
       </c>
-      <c r="AA20">
+      <c r="AD20">
         <v>-2.7099999999999997E-4</v>
       </c>
-      <c r="AB20" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE20">
+        <f t="shared" si="11"/>
+        <v>-1.4052E-2</v>
+      </c>
+      <c r="AF20" s="15">
+        <f t="shared" si="12"/>
         <v>2.7562E-2</v>
       </c>
-      <c r="AC20">
+      <c r="AG20">
         <v>-0.21440799999999999</v>
       </c>
-      <c r="AD20">
+      <c r="AH20">
         <v>-0.20683399999999999</v>
       </c>
-      <c r="AE20" s="15">
-        <f>AD20-AC20</f>
+      <c r="AI20">
+        <f t="shared" si="13"/>
+        <v>-0.210621</v>
+      </c>
+      <c r="AJ20" s="15">
+        <f t="shared" si="3"/>
         <v>7.5739999999999974E-3</v>
       </c>
-      <c r="AF20">
+      <c r="AK20">
         <v>-4.7932000000000002E-2</v>
       </c>
-      <c r="AG20">
+      <c r="AL20">
         <v>-0.108635</v>
       </c>
-      <c r="AH20">
-        <f>AG20-AF20</f>
+      <c r="AM20">
+        <f t="shared" si="14"/>
+        <v>-7.8283500000000006E-2</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="4"/>
         <v>-6.0702999999999993E-2</v>
       </c>
-      <c r="AI20" s="22">
+      <c r="AO20" s="22">
         <v>-0.19381599999999999</v>
       </c>
-      <c r="AJ20">
+      <c r="AP20">
         <v>-0.22386500000000001</v>
       </c>
-      <c r="AK20" s="15">
-        <f>AJ20-AI20</f>
+      <c r="AQ20">
+        <f t="shared" si="15"/>
+        <v>-0.20884049999999998</v>
+      </c>
+      <c r="AR20" s="15">
+        <f t="shared" si="5"/>
         <v>-3.004900000000002E-2</v>
       </c>
-      <c r="AL20" s="22">
+      <c r="AS20" s="22">
         <v>-0.17955499999999999</v>
       </c>
-      <c r="AM20">
+      <c r="AT20">
         <v>-0.243644</v>
       </c>
-      <c r="AN20" s="15">
-        <f>AM20-AL20</f>
+      <c r="AU20">
+        <f t="shared" si="16"/>
+        <v>-0.2115995</v>
+      </c>
+      <c r="AV20" s="15">
+        <f t="shared" si="6"/>
         <v>-6.4089000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>54</v>
       </c>
@@ -3292,7 +3948,7 @@
         <v>19</v>
       </c>
       <c r="P21" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="Q21" s="22">
@@ -3302,81 +3958,113 @@
         <v>-3.7810000000000003E-2</v>
       </c>
       <c r="S21" s="15">
-        <f>R21-Q21</f>
+        <f t="shared" si="8"/>
+        <v>5.509349999999999E-2</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="0"/>
         <v>-0.185807</v>
       </c>
-      <c r="T21" s="22">
+      <c r="U21" s="22">
         <v>9.4934000000000004E-2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.13406599999999999</v>
       </c>
-      <c r="V21" s="15">
-        <f>U21-T21</f>
+      <c r="W21">
+        <f t="shared" si="9"/>
+        <v>0.11449999999999999</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" si="1"/>
         <v>3.9131999999999986E-2</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>6.2327E-2</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>6.5765000000000004E-2</v>
       </c>
-      <c r="Y21" s="15">
-        <f>X21-W21</f>
+      <c r="AA21">
+        <f t="shared" si="10"/>
+        <v>6.4046000000000006E-2</v>
+      </c>
+      <c r="AB21" s="15">
+        <f t="shared" si="2"/>
         <v>3.4380000000000036E-3</v>
       </c>
-      <c r="Z21">
+      <c r="AC21">
         <v>3.0948E-2</v>
       </c>
-      <c r="AA21">
+      <c r="AD21">
         <v>6.0911E-2</v>
       </c>
-      <c r="AB21" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE21">
+        <f t="shared" si="11"/>
+        <v>4.5929499999999998E-2</v>
+      </c>
+      <c r="AF21" s="15">
+        <f t="shared" si="12"/>
         <v>2.9963E-2</v>
       </c>
-      <c r="AC21">
+      <c r="AG21">
         <v>-0.18335099999999999</v>
       </c>
-      <c r="AD21">
+      <c r="AH21">
         <v>4.7473000000000001E-2</v>
       </c>
-      <c r="AE21" s="15">
-        <f>AD21-AC21</f>
+      <c r="AI21">
+        <f t="shared" si="13"/>
+        <v>-6.7938999999999999E-2</v>
+      </c>
+      <c r="AJ21" s="15">
+        <f t="shared" si="3"/>
         <v>0.23082399999999997</v>
       </c>
-      <c r="AF21">
+      <c r="AK21">
         <v>-4.718E-2</v>
       </c>
-      <c r="AG21">
+      <c r="AL21">
         <v>0.28090999999999999</v>
       </c>
-      <c r="AH21">
-        <f>AG21-AF21</f>
+      <c r="AM21">
+        <f t="shared" si="14"/>
+        <v>0.116865</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="4"/>
         <v>0.32808999999999999</v>
       </c>
-      <c r="AI21" s="22">
+      <c r="AO21" s="22">
         <v>-3.8438E-2</v>
       </c>
-      <c r="AJ21">
+      <c r="AP21">
         <v>0.12843599999999999</v>
       </c>
-      <c r="AK21" s="15">
-        <f>AJ21-AI21</f>
+      <c r="AQ21">
+        <f t="shared" si="15"/>
+        <v>4.4998999999999997E-2</v>
+      </c>
+      <c r="AR21" s="15">
+        <f t="shared" si="5"/>
         <v>0.16687399999999999</v>
       </c>
-      <c r="AL21" s="22">
+      <c r="AS21" s="22">
         <v>-8.1141000000000005E-2</v>
       </c>
-      <c r="AM21">
+      <c r="AT21">
         <v>0.148115</v>
       </c>
-      <c r="AN21" s="15">
-        <f>AM21-AL21</f>
+      <c r="AU21">
+        <f t="shared" si="16"/>
+        <v>3.3486999999999996E-2</v>
+      </c>
+      <c r="AV21" s="15">
+        <f t="shared" si="6"/>
         <v>0.22925600000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>53</v>
       </c>
@@ -3408,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q22" s="22">
@@ -3418,81 +4106,113 @@
         <v>3.5799999999999998E-3</v>
       </c>
       <c r="S22" s="15">
-        <f>R22-Q22</f>
+        <f t="shared" si="8"/>
+        <v>-6.1519000000000004E-2</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="0"/>
         <v>0.13019800000000001</v>
       </c>
-      <c r="T22" s="22">
+      <c r="U22" s="22">
         <v>-0.20003399999999999</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-7.4226E-2</v>
       </c>
-      <c r="V22" s="15">
-        <f>U22-T22</f>
+      <c r="W22">
+        <f t="shared" si="9"/>
+        <v>-0.13713</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" si="1"/>
         <v>0.12580799999999998</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>-0.19371099999999999</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>-7.2621000000000005E-2</v>
       </c>
-      <c r="Y22" s="15">
-        <f>X22-W22</f>
+      <c r="AA22">
+        <f t="shared" si="10"/>
+        <v>-0.13316600000000001</v>
+      </c>
+      <c r="AB22" s="15">
+        <f t="shared" si="2"/>
         <v>0.12108999999999999</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
         <v>-7.0663000000000004E-2</v>
       </c>
-      <c r="AA22">
+      <c r="AD22">
         <v>-7.2345000000000007E-2</v>
       </c>
-      <c r="AB22" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE22">
+        <f t="shared" si="11"/>
+        <v>-7.1504000000000012E-2</v>
+      </c>
+      <c r="AF22" s="15">
+        <f t="shared" si="12"/>
         <v>-1.6820000000000029E-3</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>-0.16670099999999999</v>
       </c>
-      <c r="AD22">
+      <c r="AH22">
         <v>-0.195438</v>
       </c>
-      <c r="AE22" s="15">
-        <f>AD22-AC22</f>
+      <c r="AI22">
+        <f t="shared" si="13"/>
+        <v>-0.18106949999999999</v>
+      </c>
+      <c r="AJ22" s="15">
+        <f t="shared" si="3"/>
         <v>-2.8737000000000013E-2</v>
       </c>
-      <c r="AF22">
+      <c r="AK22">
         <v>-8.8109999999999994E-2</v>
       </c>
-      <c r="AG22">
+      <c r="AL22">
         <v>-0.141933</v>
       </c>
-      <c r="AH22">
-        <f>AG22-AF22</f>
+      <c r="AM22">
+        <f t="shared" si="14"/>
+        <v>-0.1150215</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="4"/>
         <v>-5.382300000000001E-2</v>
       </c>
-      <c r="AI22" s="22">
+      <c r="AO22" s="22">
         <v>-0.19656100000000001</v>
       </c>
-      <c r="AJ22">
+      <c r="AP22">
         <v>-0.16364600000000001</v>
       </c>
-      <c r="AK22" s="15">
-        <f>AJ22-AI22</f>
+      <c r="AQ22">
+        <f t="shared" si="15"/>
+        <v>-0.18010350000000003</v>
+      </c>
+      <c r="AR22" s="15">
+        <f t="shared" si="5"/>
         <v>3.2915E-2</v>
       </c>
-      <c r="AL22" s="22">
+      <c r="AS22" s="22">
         <v>-0.13891500000000001</v>
       </c>
-      <c r="AM22">
+      <c r="AT22">
         <v>-0.101881</v>
       </c>
-      <c r="AN22" s="15">
-        <f>AM22-AL22</f>
+      <c r="AU22">
+        <f t="shared" si="16"/>
+        <v>-0.12039800000000001</v>
+      </c>
+      <c r="AV22" s="15">
+        <f t="shared" si="6"/>
         <v>3.7034000000000011E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>55</v>
       </c>
@@ -3524,7 +4244,7 @@
         <v>22</v>
       </c>
       <c r="P23" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="Q23" s="22">
@@ -3534,81 +4254,113 @@
         <v>8.0751000000000003E-2</v>
       </c>
       <c r="S23" s="15">
-        <f>R23-Q23</f>
+        <f t="shared" si="8"/>
+        <v>8.3449999999999983E-3</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="0"/>
         <v>0.144812</v>
       </c>
-      <c r="T23" s="22">
+      <c r="U23" s="22">
         <v>-7.7161999999999994E-2</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1.0193000000000001E-2</v>
       </c>
-      <c r="V23" s="15">
-        <f>U23-T23</f>
+      <c r="W23">
+        <f t="shared" si="9"/>
+        <v>-3.34845E-2</v>
+      </c>
+      <c r="X23" s="15">
+        <f t="shared" si="1"/>
         <v>8.7354999999999988E-2</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>2.9855E-2</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>8.9883000000000005E-2</v>
       </c>
-      <c r="Y23" s="15">
-        <f>X23-W23</f>
+      <c r="AA23">
+        <f t="shared" si="10"/>
+        <v>5.9869000000000006E-2</v>
+      </c>
+      <c r="AB23" s="15">
+        <f t="shared" si="2"/>
         <v>6.0028000000000005E-2</v>
       </c>
-      <c r="Z23">
+      <c r="AC23">
         <v>-1.7505E-2</v>
       </c>
-      <c r="AA23">
+      <c r="AD23">
         <v>4.8473000000000002E-2</v>
       </c>
-      <c r="AB23" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE23">
+        <f t="shared" si="11"/>
+        <v>1.5484000000000001E-2</v>
+      </c>
+      <c r="AF23" s="15">
+        <f t="shared" si="12"/>
         <v>6.5978000000000009E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AG23">
         <v>2.5676999999999998E-2</v>
       </c>
-      <c r="AD23">
+      <c r="AH23">
         <v>8.0515000000000003E-2</v>
       </c>
-      <c r="AE23" s="15">
-        <f>AD23-AC23</f>
+      <c r="AI23">
+        <f t="shared" si="13"/>
+        <v>5.3096000000000004E-2</v>
+      </c>
+      <c r="AJ23" s="15">
+        <f t="shared" si="3"/>
         <v>5.4838000000000005E-2</v>
       </c>
-      <c r="AF23">
+      <c r="AK23">
         <v>9.1490000000000002E-2</v>
       </c>
-      <c r="AG23">
+      <c r="AL23">
         <v>0.136959</v>
       </c>
-      <c r="AH23">
-        <f>AG23-AF23</f>
+      <c r="AM23">
+        <f t="shared" si="14"/>
+        <v>0.11422450000000001</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="4"/>
         <v>4.5468999999999996E-2</v>
       </c>
-      <c r="AI23" s="22">
+      <c r="AO23" s="22">
         <v>5.3599000000000001E-2</v>
       </c>
-      <c r="AJ23">
+      <c r="AP23">
         <v>7.3729000000000003E-2</v>
       </c>
-      <c r="AK23" s="15">
-        <f>AJ23-AI23</f>
+      <c r="AQ23">
+        <f t="shared" si="15"/>
+        <v>6.3663999999999998E-2</v>
+      </c>
+      <c r="AR23" s="15">
+        <f t="shared" si="5"/>
         <v>2.0130000000000002E-2</v>
       </c>
-      <c r="AL23" s="22">
+      <c r="AS23" s="22">
         <v>-1.0194999999999999E-2</v>
       </c>
-      <c r="AM23">
+      <c r="AT23">
         <v>-6.5180000000000004E-3</v>
       </c>
-      <c r="AN23" s="15">
-        <f>AM23-AL23</f>
+      <c r="AU23">
+        <f t="shared" si="16"/>
+        <v>-8.3564999999999993E-3</v>
+      </c>
+      <c r="AV23" s="15">
+        <f t="shared" si="6"/>
         <v>3.6769999999999988E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>57</v>
       </c>
@@ -3640,7 +4392,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="Q24" s="22">
@@ -3650,81 +4402,113 @@
         <v>-4.9349999999999998E-2</v>
       </c>
       <c r="S24" s="15">
-        <f>R24-Q24</f>
+        <f t="shared" si="8"/>
+        <v>-9.2059500000000002E-2</v>
+      </c>
+      <c r="T24" s="15">
+        <f t="shared" si="0"/>
         <v>8.5418999999999995E-2</v>
       </c>
-      <c r="T24" s="22">
+      <c r="U24" s="22">
         <v>-5.0312000000000003E-2</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>8.9726E-2</v>
       </c>
-      <c r="V24" s="15">
-        <f>U24-T24</f>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>1.9706999999999999E-2</v>
+      </c>
+      <c r="X24" s="15">
+        <f t="shared" si="1"/>
         <v>0.140038</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>-0.16256899999999999</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>-4.326E-2</v>
       </c>
-      <c r="Y24" s="15">
-        <f>X24-W24</f>
+      <c r="AA24">
+        <f t="shared" si="10"/>
+        <v>-0.10291449999999999</v>
+      </c>
+      <c r="AB24" s="15">
+        <f t="shared" si="2"/>
         <v>0.119309</v>
       </c>
-      <c r="Z24">
+      <c r="AC24">
         <v>-4.0952000000000002E-2</v>
       </c>
-      <c r="AA24">
+      <c r="AD24">
         <v>1.6598999999999999E-2</v>
       </c>
-      <c r="AB24" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE24">
+        <f t="shared" si="11"/>
+        <v>-1.2176500000000002E-2</v>
+      </c>
+      <c r="AF24" s="15">
+        <f t="shared" si="12"/>
         <v>5.7551000000000005E-2</v>
       </c>
-      <c r="AC24">
+      <c r="AG24">
         <v>-8.3612000000000006E-2</v>
       </c>
-      <c r="AD24">
+      <c r="AH24">
         <v>-7.6049999999999998E-3</v>
       </c>
-      <c r="AE24" s="15">
-        <f>AD24-AC24</f>
+      <c r="AI24">
+        <f t="shared" si="13"/>
+        <v>-4.5608500000000003E-2</v>
+      </c>
+      <c r="AJ24" s="15">
+        <f t="shared" si="3"/>
         <v>7.6007000000000005E-2</v>
       </c>
-      <c r="AF24">
+      <c r="AK24">
         <v>-7.9240000000000005E-2</v>
       </c>
-      <c r="AG24">
+      <c r="AL24">
         <v>9.1889999999999999E-2</v>
       </c>
-      <c r="AH24">
-        <f>AG24-AF24</f>
+      <c r="AM24">
+        <f t="shared" si="14"/>
+        <v>6.3249999999999973E-3</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="4"/>
         <v>0.17113</v>
       </c>
-      <c r="AI24" s="22">
+      <c r="AO24" s="22">
         <v>-0.32269999999999999</v>
       </c>
-      <c r="AJ24">
+      <c r="AP24">
         <v>-0.120354</v>
       </c>
-      <c r="AK24" s="15">
-        <f>AJ24-AI24</f>
+      <c r="AQ24">
+        <f t="shared" si="15"/>
+        <v>-0.221527</v>
+      </c>
+      <c r="AR24" s="15">
+        <f t="shared" si="5"/>
         <v>0.20234599999999997</v>
       </c>
-      <c r="AL24" s="22">
+      <c r="AS24" s="22">
         <v>-0.180978</v>
       </c>
-      <c r="AM24">
+      <c r="AT24">
         <v>2.1330999999999999E-2</v>
       </c>
-      <c r="AN24" s="15">
-        <f>AM24-AL24</f>
+      <c r="AU24">
+        <f t="shared" si="16"/>
+        <v>-7.9823500000000006E-2</v>
+      </c>
+      <c r="AV24" s="15">
+        <f t="shared" si="6"/>
         <v>0.20230899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>56</v>
       </c>
@@ -3756,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q25" s="22">
@@ -3766,81 +4550,113 @@
         <v>7.5980000000000006E-2</v>
       </c>
       <c r="S25" s="15">
-        <f>R25-Q25</f>
+        <f t="shared" si="8"/>
+        <v>-5.2093999999999994E-2</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="0"/>
         <v>0.25614799999999999</v>
       </c>
-      <c r="T25" s="22">
+      <c r="U25" s="22">
         <v>-0.163575</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-0.12099799999999999</v>
       </c>
-      <c r="V25" s="15">
-        <f>U25-T25</f>
+      <c r="W25">
+        <f t="shared" si="9"/>
+        <v>-0.14228649999999998</v>
+      </c>
+      <c r="X25" s="15">
+        <f t="shared" si="1"/>
         <v>4.2577000000000004E-2</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>-0.127494</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>-4.6290000000000003E-3</v>
       </c>
-      <c r="Y25" s="15">
-        <f>X25-W25</f>
+      <c r="AA25">
+        <f t="shared" si="10"/>
+        <v>-6.6061499999999995E-2</v>
+      </c>
+      <c r="AB25" s="15">
+        <f t="shared" si="2"/>
         <v>0.122865</v>
       </c>
-      <c r="Z25">
+      <c r="AC25">
         <v>-7.4638999999999997E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AD25">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="AB25" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE25">
+        <f t="shared" si="11"/>
+        <v>-1.72695E-2</v>
+      </c>
+      <c r="AF25" s="15">
+        <f t="shared" si="12"/>
         <v>0.11473899999999999</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>6.6763000000000003E-2</v>
       </c>
-      <c r="AD25">
+      <c r="AH25">
         <v>5.8187000000000003E-2</v>
       </c>
-      <c r="AE25" s="15">
-        <f>AD25-AC25</f>
+      <c r="AI25">
+        <f t="shared" si="13"/>
+        <v>6.2475000000000003E-2</v>
+      </c>
+      <c r="AJ25" s="15">
+        <f t="shared" si="3"/>
         <v>-8.5760000000000003E-3</v>
       </c>
-      <c r="AF25">
+      <c r="AK25">
         <v>0.109371</v>
       </c>
-      <c r="AG25">
+      <c r="AL25">
         <v>8.9312000000000002E-2</v>
       </c>
-      <c r="AH25">
-        <f>AG25-AF25</f>
+      <c r="AM25">
+        <f t="shared" si="14"/>
+        <v>9.9341499999999999E-2</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="4"/>
         <v>-2.0058999999999994E-2</v>
       </c>
-      <c r="AI25" s="22">
+      <c r="AO25" s="22">
         <v>1.3393E-2</v>
       </c>
-      <c r="AJ25">
+      <c r="AP25">
         <v>0.151031</v>
       </c>
-      <c r="AK25" s="15">
-        <f>AJ25-AI25</f>
+      <c r="AQ25">
+        <f t="shared" si="15"/>
+        <v>8.2211999999999993E-2</v>
+      </c>
+      <c r="AR25" s="15">
+        <f t="shared" si="5"/>
         <v>0.13763800000000001</v>
       </c>
-      <c r="AL25" s="22">
+      <c r="AS25" s="22">
         <v>3.6181999999999999E-2</v>
       </c>
-      <c r="AM25">
+      <c r="AT25">
         <v>9.5702999999999996E-2</v>
       </c>
-      <c r="AN25" s="15">
-        <f>AM25-AL25</f>
+      <c r="AU25">
+        <f t="shared" si="16"/>
+        <v>6.5942500000000001E-2</v>
+      </c>
+      <c r="AV25" s="15">
+        <f t="shared" si="6"/>
         <v>5.9520999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>58</v>
       </c>
@@ -3872,7 +4688,7 @@
         <v>22</v>
       </c>
       <c r="P26" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="Q26" s="22">
@@ -3882,81 +4698,113 @@
         <v>0.293433</v>
       </c>
       <c r="S26" s="15">
-        <f>R26-Q26</f>
+        <f t="shared" si="8"/>
+        <v>0.113347</v>
+      </c>
+      <c r="T26" s="15">
+        <f t="shared" si="0"/>
         <v>0.36017199999999999</v>
       </c>
-      <c r="T26" s="22">
+      <c r="U26" s="22">
         <v>3.3617000000000001E-2</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.17433000000000001</v>
       </c>
-      <c r="V26" s="15">
-        <f>U26-T26</f>
+      <c r="W26">
+        <f t="shared" si="9"/>
+        <v>0.10397350000000001</v>
+      </c>
+      <c r="X26" s="15">
+        <f t="shared" si="1"/>
         <v>0.140713</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>2.0195000000000001E-2</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>8.8067000000000006E-2</v>
       </c>
-      <c r="Y26" s="15">
-        <f>X26-W26</f>
+      <c r="AA26">
+        <f t="shared" si="10"/>
+        <v>5.4131000000000006E-2</v>
+      </c>
+      <c r="AB26" s="15">
+        <f t="shared" si="2"/>
         <v>6.7872000000000002E-2</v>
       </c>
-      <c r="Z26">
+      <c r="AC26">
         <v>8.3649000000000001E-2</v>
       </c>
-      <c r="AA26">
+      <c r="AD26">
         <v>0.19259299999999999</v>
       </c>
-      <c r="AB26" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE26">
+        <f t="shared" si="11"/>
+        <v>0.13812099999999999</v>
+      </c>
+      <c r="AF26" s="15">
+        <f t="shared" si="12"/>
         <v>0.10894399999999999</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>5.9305999999999998E-2</v>
       </c>
-      <c r="AD26">
+      <c r="AH26">
         <v>0.16288</v>
       </c>
-      <c r="AE26" s="15">
-        <f>AD26-AC26</f>
+      <c r="AI26">
+        <f t="shared" si="13"/>
+        <v>0.111093</v>
+      </c>
+      <c r="AJ26" s="15">
+        <f t="shared" si="3"/>
         <v>0.103574</v>
       </c>
-      <c r="AF26">
+      <c r="AK26">
         <v>-5.4826E-2</v>
       </c>
-      <c r="AG26">
+      <c r="AL26">
         <v>1.7403999999999999E-2</v>
       </c>
-      <c r="AH26">
-        <f>AG26-AF26</f>
+      <c r="AM26">
+        <f t="shared" si="14"/>
+        <v>-1.8710999999999998E-2</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="4"/>
         <v>7.2230000000000003E-2</v>
       </c>
-      <c r="AI26" s="22">
+      <c r="AO26" s="22">
         <v>4.9820999999999997E-2</v>
       </c>
-      <c r="AJ26">
+      <c r="AP26">
         <v>0.13849800000000001</v>
       </c>
-      <c r="AK26" s="15">
-        <f>AJ26-AI26</f>
+      <c r="AQ26">
+        <f t="shared" si="15"/>
+        <v>9.4159500000000007E-2</v>
+      </c>
+      <c r="AR26" s="15">
+        <f t="shared" si="5"/>
         <v>8.8677000000000006E-2</v>
       </c>
-      <c r="AL26" s="22">
+      <c r="AS26" s="22">
         <v>3.1959000000000001E-2</v>
       </c>
-      <c r="AM26">
+      <c r="AT26">
         <v>0.161245</v>
       </c>
-      <c r="AN26" s="15">
-        <f>AM26-AL26</f>
+      <c r="AU26">
+        <f t="shared" si="16"/>
+        <v>9.6601999999999993E-2</v>
+      </c>
+      <c r="AV26" s="15">
+        <f t="shared" si="6"/>
         <v>0.12928600000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>60</v>
       </c>
@@ -3988,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q27" s="22">
@@ -3998,81 +4846,113 @@
         <v>-6.2100000000000002E-4</v>
       </c>
       <c r="S27" s="15">
-        <f>R27-Q27</f>
+        <f t="shared" si="8"/>
+        <v>-6.2205999999999997E-2</v>
+      </c>
+      <c r="T27" s="15">
+        <f t="shared" si="0"/>
         <v>0.12317</v>
       </c>
-      <c r="T27" s="22">
+      <c r="U27" s="22">
         <v>-0.20208100000000001</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-5.6236000000000001E-2</v>
       </c>
-      <c r="V27" s="15">
-        <f>U27-T27</f>
+      <c r="W27">
+        <f t="shared" si="9"/>
+        <v>-0.12915850000000001</v>
+      </c>
+      <c r="X27" s="15">
+        <f t="shared" si="1"/>
         <v>0.145845</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>-0.15120800000000001</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>-6.1436999999999999E-2</v>
       </c>
-      <c r="Y27" s="15">
-        <f>X27-W27</f>
+      <c r="AA27">
+        <f t="shared" si="10"/>
+        <v>-0.1063225</v>
+      </c>
+      <c r="AB27" s="15">
+        <f t="shared" si="2"/>
         <v>8.9771000000000017E-2</v>
       </c>
-      <c r="Z27">
+      <c r="AC27">
         <v>-0.13892099999999999</v>
       </c>
-      <c r="AA27">
+      <c r="AD27">
         <v>-6.5240999999999993E-2</v>
       </c>
-      <c r="AB27" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE27">
+        <f t="shared" si="11"/>
+        <v>-0.10208099999999999</v>
+      </c>
+      <c r="AF27" s="15">
+        <f t="shared" si="12"/>
         <v>7.3679999999999995E-2</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>-4.6586000000000002E-2</v>
       </c>
-      <c r="AD27">
+      <c r="AH27">
         <v>-0.114108</v>
       </c>
-      <c r="AE27" s="15">
-        <f>AD27-AC27</f>
+      <c r="AI27">
+        <f t="shared" si="13"/>
+        <v>-8.0347000000000002E-2</v>
+      </c>
+      <c r="AJ27" s="15">
+        <f t="shared" si="3"/>
         <v>-6.7521999999999999E-2</v>
       </c>
-      <c r="AF27">
+      <c r="AK27">
         <v>-1.4815999999999999E-2</v>
       </c>
-      <c r="AG27">
+      <c r="AL27">
         <v>-0.12833700000000001</v>
       </c>
-      <c r="AH27">
-        <f>AG27-AF27</f>
+      <c r="AM27">
+        <f t="shared" si="14"/>
+        <v>-7.1576500000000001E-2</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="4"/>
         <v>-0.11352100000000001</v>
       </c>
-      <c r="AI27" s="22">
+      <c r="AO27" s="22">
         <v>3.5944999999999998E-2</v>
       </c>
-      <c r="AJ27">
+      <c r="AP27">
         <v>-6.9070999999999994E-2</v>
       </c>
-      <c r="AK27" s="15">
-        <f>AJ27-AI27</f>
+      <c r="AQ27">
+        <f t="shared" si="15"/>
+        <v>-1.6562999999999998E-2</v>
+      </c>
+      <c r="AR27" s="15">
+        <f t="shared" si="5"/>
         <v>-0.105016</v>
       </c>
-      <c r="AL27" s="22">
+      <c r="AS27" s="22">
         <v>2.2284999999999999E-2</v>
       </c>
-      <c r="AM27">
+      <c r="AT27">
         <v>-0.123275</v>
       </c>
-      <c r="AN27" s="15">
-        <f>AM27-AL27</f>
+      <c r="AU27">
+        <f t="shared" si="16"/>
+        <v>-5.0494999999999998E-2</v>
+      </c>
+      <c r="AV27" s="15">
+        <f t="shared" si="6"/>
         <v>-0.14555999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>59</v>
       </c>
@@ -4104,7 +4984,7 @@
         <v>6</v>
       </c>
       <c r="P28" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="Q28" s="22">
@@ -4114,81 +4994,113 @@
         <v>3.9376000000000001E-2</v>
       </c>
       <c r="S28" s="15">
-        <f>R28-Q28</f>
+        <f t="shared" si="8"/>
+        <v>-2.4976500000000002E-2</v>
+      </c>
+      <c r="T28" s="15">
+        <f t="shared" si="0"/>
         <v>0.12870500000000001</v>
       </c>
-      <c r="T28" s="22">
+      <c r="U28" s="22">
         <v>-0.23002300000000001</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.102991</v>
       </c>
-      <c r="V28" s="15">
-        <f>U28-T28</f>
+      <c r="W28">
+        <f t="shared" si="9"/>
+        <v>-0.16650700000000002</v>
+      </c>
+      <c r="X28" s="15">
+        <f t="shared" si="1"/>
         <v>0.12703200000000001</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>0.12603200000000001</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>2.8617E-2</v>
       </c>
-      <c r="Y28" s="15">
-        <f>X28-W28</f>
+      <c r="AA28">
+        <f t="shared" si="10"/>
+        <v>7.7324500000000004E-2</v>
+      </c>
+      <c r="AB28" s="15">
+        <f t="shared" si="2"/>
         <v>-9.7415000000000002E-2</v>
       </c>
-      <c r="Z28">
+      <c r="AC28">
         <v>-3.3774999999999999E-2</v>
       </c>
-      <c r="AA28">
+      <c r="AD28">
         <v>-1.9386E-2</v>
       </c>
-      <c r="AB28" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE28">
+        <f t="shared" si="11"/>
+        <v>-2.65805E-2</v>
+      </c>
+      <c r="AF28" s="15">
+        <f t="shared" si="12"/>
         <v>1.4388999999999999E-2</v>
       </c>
-      <c r="AC28">
+      <c r="AG28">
         <v>-0.14354800000000001</v>
       </c>
-      <c r="AD28">
+      <c r="AH28">
         <v>6.3961000000000004E-2</v>
       </c>
-      <c r="AE28" s="15">
-        <f>AD28-AC28</f>
+      <c r="AI28">
+        <f t="shared" si="13"/>
+        <v>-3.9793500000000002E-2</v>
+      </c>
+      <c r="AJ28" s="15">
+        <f t="shared" si="3"/>
         <v>0.207509</v>
       </c>
-      <c r="AF28">
+      <c r="AK28">
         <v>-0.187551</v>
       </c>
-      <c r="AG28">
+      <c r="AL28">
         <v>6.6267999999999994E-2</v>
       </c>
-      <c r="AH28">
-        <f>AG28-AF28</f>
+      <c r="AM28">
+        <f t="shared" si="14"/>
+        <v>-6.0641500000000001E-2</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="4"/>
         <v>0.25381900000000002</v>
       </c>
-      <c r="AI28" s="22">
+      <c r="AO28" s="22">
         <v>1.6114E-2</v>
       </c>
-      <c r="AJ28">
+      <c r="AP28">
         <v>0.11569400000000001</v>
       </c>
-      <c r="AK28" s="15">
-        <f>AJ28-AI28</f>
+      <c r="AQ28">
+        <f t="shared" si="15"/>
+        <v>6.5904000000000004E-2</v>
+      </c>
+      <c r="AR28" s="15">
+        <f t="shared" si="5"/>
         <v>9.9580000000000002E-2</v>
       </c>
-      <c r="AL28" s="22">
+      <c r="AS28" s="22">
         <v>0.13467999999999999</v>
       </c>
-      <c r="AM28">
+      <c r="AT28">
         <v>0.19463</v>
       </c>
-      <c r="AN28" s="15">
-        <f>AM28-AL28</f>
+      <c r="AU28">
+        <f t="shared" si="16"/>
+        <v>0.164655</v>
+      </c>
+      <c r="AV28" s="15">
+        <f t="shared" si="6"/>
         <v>5.9950000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>61</v>
       </c>
@@ -4220,7 +5132,7 @@
         <v>21</v>
       </c>
       <c r="P29" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="Q29" s="22">
@@ -4230,81 +5142,113 @@
         <v>2.3073E-2</v>
       </c>
       <c r="S29" s="15">
-        <f>R29-Q29</f>
+        <f t="shared" si="8"/>
+        <v>-4.5888999999999999E-2</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="0"/>
         <v>0.13792399999999999</v>
       </c>
-      <c r="T29" s="22">
+      <c r="U29" s="22">
         <v>3.1149E-2</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.18643399999999999</v>
       </c>
-      <c r="V29" s="15">
-        <f>U29-T29</f>
+      <c r="W29">
+        <f t="shared" si="9"/>
+        <v>0.1087915</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="1"/>
         <v>0.15528499999999998</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>-0.15851899999999999</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>2.1512E-2</v>
       </c>
-      <c r="Y29" s="15">
-        <f>X29-W29</f>
+      <c r="AA29">
+        <f t="shared" si="10"/>
+        <v>-6.8503499999999995E-2</v>
+      </c>
+      <c r="AB29" s="15">
+        <f t="shared" si="2"/>
         <v>0.180031</v>
       </c>
-      <c r="Z29">
+      <c r="AC29">
         <v>-9.2040999999999998E-2</v>
       </c>
-      <c r="AA29">
+      <c r="AD29">
         <v>8.5773000000000002E-2</v>
       </c>
-      <c r="AB29" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE29">
+        <f t="shared" si="11"/>
+        <v>-3.1339999999999979E-3</v>
+      </c>
+      <c r="AF29" s="15">
+        <f t="shared" si="12"/>
         <v>0.177814</v>
       </c>
-      <c r="AC29">
+      <c r="AG29">
         <v>-5.3199999999999997E-2</v>
       </c>
-      <c r="AD29">
+      <c r="AH29">
         <v>8.3458000000000004E-2</v>
       </c>
-      <c r="AE29" s="15">
-        <f>AD29-AC29</f>
+      <c r="AI29">
+        <f t="shared" si="13"/>
+        <v>1.5129000000000004E-2</v>
+      </c>
+      <c r="AJ29" s="15">
+        <f t="shared" si="3"/>
         <v>0.136658</v>
       </c>
-      <c r="AF29">
+      <c r="AK29">
         <v>0.119044</v>
       </c>
-      <c r="AG29">
+      <c r="AL29">
         <v>0.19715199999999999</v>
       </c>
-      <c r="AH29">
-        <f>AG29-AF29</f>
+      <c r="AM29">
+        <f t="shared" si="14"/>
+        <v>0.15809799999999999</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="4"/>
         <v>7.8107999999999997E-2</v>
       </c>
-      <c r="AI29" s="22">
+      <c r="AO29" s="22">
         <v>-0.161076</v>
       </c>
-      <c r="AJ29">
+      <c r="AP29">
         <v>-8.8548000000000002E-2</v>
       </c>
-      <c r="AK29" s="15">
-        <f>AJ29-AI29</f>
+      <c r="AQ29">
+        <f t="shared" si="15"/>
+        <v>-0.12481200000000001</v>
+      </c>
+      <c r="AR29" s="15">
+        <f t="shared" si="5"/>
         <v>7.2527999999999995E-2</v>
       </c>
-      <c r="AL29" s="22">
+      <c r="AS29" s="22">
         <v>-6.1520999999999999E-2</v>
       </c>
-      <c r="AM29">
+      <c r="AT29">
         <v>-4.7421999999999999E-2</v>
       </c>
-      <c r="AN29" s="15">
-        <f>AM29-AL29</f>
+      <c r="AU29">
+        <f t="shared" si="16"/>
+        <v>-5.4471499999999999E-2</v>
+      </c>
+      <c r="AV29" s="15">
+        <f t="shared" si="6"/>
         <v>1.4099E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="I30" s="16">
         <v>3920</v>
       </c>
@@ -4327,7 +5271,7 @@
         <v>3</v>
       </c>
       <c r="P30" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="Q30" s="22">
@@ -4337,81 +5281,113 @@
         <v>3.8468000000000002E-2</v>
       </c>
       <c r="S30" s="15">
-        <f>R30-Q30</f>
+        <f t="shared" si="8"/>
+        <v>-8.95035E-2</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="0"/>
         <v>0.25594300000000003</v>
       </c>
-      <c r="T30" s="22">
+      <c r="U30" s="22">
         <v>-0.178921</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2.212E-3</v>
       </c>
-      <c r="V30" s="15">
-        <f>U30-T30</f>
+      <c r="W30">
+        <f t="shared" si="9"/>
+        <v>-8.8354500000000002E-2</v>
+      </c>
+      <c r="X30" s="15">
+        <f t="shared" si="1"/>
         <v>0.18113299999999999</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>-8.1018000000000007E-2</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>2.7618E-2</v>
       </c>
-      <c r="Y30" s="15">
-        <f>X30-W30</f>
+      <c r="AA30">
+        <f t="shared" si="10"/>
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="AB30" s="15">
+        <f t="shared" si="2"/>
         <v>0.10863600000000001</v>
       </c>
-      <c r="Z30">
+      <c r="AC30">
         <v>-6.9511000000000003E-2</v>
       </c>
-      <c r="AA30">
+      <c r="AD30">
         <v>6.8507999999999999E-2</v>
       </c>
-      <c r="AB30" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE30">
+        <f t="shared" si="11"/>
+        <v>-5.0150000000000194E-4</v>
+      </c>
+      <c r="AF30" s="15">
+        <f t="shared" si="12"/>
         <v>0.138019</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>0.17960000000000001</v>
       </c>
-      <c r="AD30">
+      <c r="AH30">
         <v>1.6688000000000001E-2</v>
       </c>
-      <c r="AE30" s="15">
-        <f>AD30-AC30</f>
+      <c r="AI30">
+        <f t="shared" si="13"/>
+        <v>9.8144000000000009E-2</v>
+      </c>
+      <c r="AJ30" s="15">
+        <f t="shared" si="3"/>
         <v>-0.162912</v>
       </c>
-      <c r="AF30">
+      <c r="AK30">
         <v>0.21753500000000001</v>
       </c>
-      <c r="AG30">
+      <c r="AL30">
         <v>0.18332100000000001</v>
       </c>
-      <c r="AH30">
-        <f>AG30-AF30</f>
+      <c r="AM30">
+        <f t="shared" si="14"/>
+        <v>0.200428</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="4"/>
         <v>-3.4213999999999994E-2</v>
       </c>
-      <c r="AI30" s="22">
+      <c r="AO30" s="22">
         <v>0.114172</v>
       </c>
-      <c r="AJ30">
+      <c r="AP30">
         <v>0.136208</v>
       </c>
-      <c r="AK30" s="15">
-        <f>AJ30-AI30</f>
+      <c r="AQ30">
+        <f t="shared" si="15"/>
+        <v>0.12519</v>
+      </c>
+      <c r="AR30" s="15">
+        <f t="shared" si="5"/>
         <v>2.2036E-2</v>
       </c>
-      <c r="AL30" s="22">
+      <c r="AS30" s="22">
         <v>0.13848099999999999</v>
       </c>
-      <c r="AM30">
+      <c r="AT30">
         <v>0.122512</v>
       </c>
-      <c r="AN30" s="15">
-        <f>AM30-AL30</f>
+      <c r="AU30">
+        <f t="shared" si="16"/>
+        <v>0.13049649999999999</v>
+      </c>
+      <c r="AV30" s="15">
+        <f t="shared" si="6"/>
         <v>-1.5968999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="I31" s="16">
         <v>3967</v>
       </c>
@@ -4434,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q31" s="22">
@@ -4444,81 +5420,113 @@
         <v>-4.3165000000000002E-2</v>
       </c>
       <c r="S31" s="15">
-        <f>R31-Q31</f>
+        <f t="shared" si="8"/>
+        <v>-0.15775549999999999</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="0"/>
         <v>0.22918099999999997</v>
       </c>
-      <c r="T31" s="22">
+      <c r="U31" s="22">
         <v>-0.11481</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>2.3671000000000001E-2</v>
       </c>
-      <c r="V31" s="15">
-        <f>U31-T31</f>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>-4.5569499999999999E-2</v>
+      </c>
+      <c r="X31" s="15">
+        <f t="shared" si="1"/>
         <v>0.13848099999999999</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>-1.0366999999999999E-2</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>5.2230000000000002E-3</v>
       </c>
-      <c r="Y31" s="15">
-        <f>X31-W31</f>
+      <c r="AA31">
+        <f t="shared" si="10"/>
+        <v>-2.5719999999999996E-3</v>
+      </c>
+      <c r="AB31" s="15">
+        <f t="shared" si="2"/>
         <v>1.559E-2</v>
       </c>
-      <c r="Z31">
+      <c r="AC31">
         <v>-2.3716999999999998E-2</v>
       </c>
-      <c r="AA31">
+      <c r="AD31">
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="AB31" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE31">
+        <f t="shared" si="11"/>
+        <v>-1.1622499999999999E-2</v>
+      </c>
+      <c r="AF31" s="15">
+        <f t="shared" si="12"/>
         <v>2.4188999999999999E-2</v>
       </c>
-      <c r="AC31">
+      <c r="AG31">
         <v>-0.17371800000000001</v>
       </c>
-      <c r="AD31">
+      <c r="AH31">
         <v>0.151338</v>
       </c>
-      <c r="AE31" s="15">
-        <f>AD31-AC31</f>
+      <c r="AI31">
+        <f t="shared" si="13"/>
+        <v>-1.1190000000000005E-2</v>
+      </c>
+      <c r="AJ31" s="15">
+        <f t="shared" si="3"/>
         <v>0.32505600000000001</v>
       </c>
-      <c r="AF31">
+      <c r="AK31">
         <v>-0.19462699999999999</v>
       </c>
-      <c r="AG31">
+      <c r="AL31">
         <v>0.28891099999999997</v>
       </c>
-      <c r="AH31">
-        <f>AG31-AF31</f>
+      <c r="AM31">
+        <f t="shared" si="14"/>
+        <v>4.7141999999999989E-2</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="4"/>
         <v>0.48353799999999997</v>
       </c>
-      <c r="AI31" s="22">
+      <c r="AO31" s="22">
         <v>-0.19425000000000001</v>
       </c>
-      <c r="AJ31">
+      <c r="AP31">
         <v>0.18018500000000001</v>
       </c>
-      <c r="AK31" s="15">
-        <f>AJ31-AI31</f>
+      <c r="AQ31">
+        <f t="shared" si="15"/>
+        <v>-7.0324999999999971E-3</v>
+      </c>
+      <c r="AR31" s="15">
+        <f t="shared" si="5"/>
         <v>0.37443500000000002</v>
       </c>
-      <c r="AL31" s="22">
+      <c r="AS31" s="22">
         <v>-0.15457199999999999</v>
       </c>
-      <c r="AM31">
+      <c r="AT31">
         <v>0.156164</v>
       </c>
-      <c r="AN31" s="15">
-        <f>AM31-AL31</f>
+      <c r="AU31">
+        <f t="shared" si="16"/>
+        <v>7.9600000000000504E-4</v>
+      </c>
+      <c r="AV31" s="15">
+        <f t="shared" si="6"/>
         <v>0.31073600000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="I32" s="16">
         <v>3992</v>
       </c>
@@ -4541,7 +5549,7 @@
         <v>23</v>
       </c>
       <c r="P32" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="Q32" s="22">
@@ -4551,81 +5559,113 @@
         <v>0.13015099999999999</v>
       </c>
       <c r="S32" s="15">
-        <f>R32-Q32</f>
+        <f t="shared" si="8"/>
+        <v>7.1226499999999998E-2</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" si="0"/>
         <v>0.11784899999999998</v>
       </c>
-      <c r="T32" s="22">
+      <c r="U32" s="22">
         <v>3.4256000000000002E-2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.124375</v>
       </c>
-      <c r="V32" s="15">
-        <f>U32-T32</f>
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>7.9315499999999997E-2</v>
+      </c>
+      <c r="X32" s="15">
+        <f t="shared" si="1"/>
         <v>9.0119000000000005E-2</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>-3.3739999999999998E-3</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>5.6363000000000003E-2</v>
       </c>
-      <c r="Y32" s="15">
-        <f>X32-W32</f>
+      <c r="AA32">
+        <f t="shared" si="10"/>
+        <v>2.6494500000000001E-2</v>
+      </c>
+      <c r="AB32" s="15">
+        <f t="shared" si="2"/>
         <v>5.9737000000000005E-2</v>
       </c>
-      <c r="Z32">
+      <c r="AC32">
         <v>-5.1005000000000002E-2</v>
       </c>
-      <c r="AA32">
+      <c r="AD32">
         <v>7.8109999999999999E-2</v>
       </c>
-      <c r="AB32" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE32">
+        <f t="shared" si="11"/>
+        <v>1.3552499999999999E-2</v>
+      </c>
+      <c r="AF32" s="15">
+        <f t="shared" si="12"/>
         <v>0.12911500000000001</v>
       </c>
-      <c r="AC32">
+      <c r="AG32">
         <v>4.0141999999999997E-2</v>
       </c>
-      <c r="AD32">
+      <c r="AH32">
         <v>2.6144000000000001E-2</v>
       </c>
-      <c r="AE32" s="15">
-        <f>AD32-AC32</f>
+      <c r="AI32">
+        <f t="shared" si="13"/>
+        <v>3.3142999999999999E-2</v>
+      </c>
+      <c r="AJ32" s="15">
+        <f t="shared" si="3"/>
         <v>-1.3997999999999997E-2</v>
       </c>
-      <c r="AF32">
+      <c r="AK32">
         <v>0.11580600000000001</v>
       </c>
-      <c r="AG32">
+      <c r="AL32">
         <v>-4.6249999999999998E-3</v>
       </c>
-      <c r="AH32">
-        <f>AG32-AF32</f>
+      <c r="AM32">
+        <f t="shared" si="14"/>
+        <v>5.5590500000000001E-2</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="4"/>
         <v>-0.12043100000000001</v>
       </c>
-      <c r="AI32" s="22">
+      <c r="AO32" s="22">
         <v>2.0549000000000001E-2</v>
       </c>
-      <c r="AJ32">
+      <c r="AP32">
         <v>7.8139999999999998E-3</v>
       </c>
-      <c r="AK32" s="15">
-        <f>AJ32-AI32</f>
+      <c r="AQ32">
+        <f t="shared" si="15"/>
+        <v>1.41815E-2</v>
+      </c>
+      <c r="AR32" s="15">
+        <f t="shared" si="5"/>
         <v>-1.2735000000000002E-2</v>
       </c>
-      <c r="AL32" s="22">
+      <c r="AS32" s="22">
         <v>-1.2631E-2</v>
       </c>
-      <c r="AM32">
+      <c r="AT32">
         <v>-4.5734999999999998E-2</v>
       </c>
-      <c r="AN32" s="15">
-        <f>AM32-AL32</f>
+      <c r="AU32">
+        <f t="shared" si="16"/>
+        <v>-2.9183000000000001E-2</v>
+      </c>
+      <c r="AV32" s="15">
+        <f t="shared" si="6"/>
         <v>-3.3103999999999995E-2</v>
       </c>
     </row>
-    <row r="33" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:48" x14ac:dyDescent="0.2">
       <c r="I33" s="16">
         <v>4017</v>
       </c>
@@ -4648,7 +5688,7 @@
         <v>16</v>
       </c>
       <c r="P33" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="Q33" s="22">
@@ -4658,81 +5698,113 @@
         <v>0.30115599999999998</v>
       </c>
       <c r="S33" s="15">
-        <f>R33-Q33</f>
+        <f t="shared" si="8"/>
+        <v>8.9048999999999989E-2</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" si="0"/>
         <v>0.42421399999999998</v>
       </c>
-      <c r="T33" s="22">
+      <c r="U33" s="22">
         <v>-0.15879399999999999</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.21249899999999999</v>
       </c>
-      <c r="V33" s="15">
-        <f>U33-T33</f>
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>2.6852500000000001E-2</v>
+      </c>
+      <c r="X33" s="15">
+        <f t="shared" si="1"/>
         <v>0.37129299999999998</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>-0.16443199999999999</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>-7.5204999999999994E-2</v>
       </c>
-      <c r="Y33" s="15">
-        <f>X33-W33</f>
+      <c r="AA33">
+        <f t="shared" si="10"/>
+        <v>-0.11981849999999999</v>
+      </c>
+      <c r="AB33" s="15">
+        <f t="shared" si="2"/>
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="Z33">
+      <c r="AC33">
         <v>-0.10000299999999999</v>
       </c>
-      <c r="AA33">
+      <c r="AD33">
         <v>3.7670000000000002E-2</v>
       </c>
-      <c r="AB33" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE33">
+        <f t="shared" si="11"/>
+        <v>-3.1166499999999996E-2</v>
+      </c>
+      <c r="AF33" s="15">
+        <f t="shared" si="12"/>
         <v>0.13767299999999999</v>
       </c>
-      <c r="AC33">
+      <c r="AG33">
         <v>0.26120700000000002</v>
       </c>
-      <c r="AD33">
+      <c r="AH33">
         <v>-4.0544999999999998E-2</v>
       </c>
-      <c r="AE33" s="15">
-        <f>AD33-AC33</f>
+      <c r="AI33">
+        <f t="shared" si="13"/>
+        <v>0.11033100000000001</v>
+      </c>
+      <c r="AJ33" s="15">
+        <f t="shared" si="3"/>
         <v>-0.30175200000000002</v>
       </c>
-      <c r="AF33">
+      <c r="AK33">
         <v>0.23862700000000001</v>
       </c>
-      <c r="AG33">
+      <c r="AL33">
         <v>-7.2652999999999995E-2</v>
       </c>
-      <c r="AH33">
-        <f>AG33-AF33</f>
+      <c r="AM33">
+        <f t="shared" si="14"/>
+        <v>8.2987000000000005E-2</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="4"/>
         <v>-0.31128</v>
       </c>
-      <c r="AI33" s="22">
+      <c r="AO33" s="22">
         <v>0.12012</v>
       </c>
-      <c r="AJ33">
+      <c r="AP33">
         <v>0.16584499999999999</v>
       </c>
-      <c r="AK33" s="15">
-        <f>AJ33-AI33</f>
+      <c r="AQ33">
+        <f t="shared" si="15"/>
+        <v>0.14298250000000001</v>
+      </c>
+      <c r="AR33" s="15">
+        <f t="shared" si="5"/>
         <v>4.5724999999999988E-2</v>
       </c>
-      <c r="AL33" s="22">
+      <c r="AS33" s="22">
         <v>0.13563500000000001</v>
       </c>
-      <c r="AM33">
+      <c r="AT33">
         <v>0.18754899999999999</v>
       </c>
-      <c r="AN33" s="15">
-        <f>AM33-AL33</f>
+      <c r="AU33">
+        <f t="shared" si="16"/>
+        <v>0.16159200000000001</v>
+      </c>
+      <c r="AV33" s="15">
+        <f t="shared" si="6"/>
         <v>5.1913999999999988E-2</v>
       </c>
     </row>
-    <row r="34" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:48" x14ac:dyDescent="0.2">
       <c r="I34" s="16">
         <v>4018</v>
       </c>
@@ -4755,7 +5827,7 @@
         <v>18</v>
       </c>
       <c r="P34" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="Q34" s="22">
@@ -4765,81 +5837,113 @@
         <v>-0.16614799999999999</v>
       </c>
       <c r="S34" s="15">
-        <f>R34-Q34</f>
+        <f t="shared" si="8"/>
+        <v>-7.4643999999999988E-2</v>
+      </c>
+      <c r="T34" s="15">
+        <f t="shared" si="0"/>
         <v>-0.183008</v>
       </c>
-      <c r="T34" s="22">
+      <c r="U34" s="22">
         <v>3.026E-3</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3.4047000000000001E-2</v>
       </c>
-      <c r="V34" s="15">
-        <f>U34-T34</f>
+      <c r="W34">
+        <f t="shared" si="9"/>
+        <v>1.8536500000000001E-2</v>
+      </c>
+      <c r="X34" s="15">
+        <f t="shared" si="1"/>
         <v>3.1021E-2</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>0.116092</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <v>-3.8662000000000002E-2</v>
       </c>
-      <c r="Y34" s="15">
-        <f>X34-W34</f>
+      <c r="AA34">
+        <f t="shared" si="10"/>
+        <v>3.8714999999999999E-2</v>
+      </c>
+      <c r="AB34" s="15">
+        <f t="shared" si="2"/>
         <v>-0.154754</v>
       </c>
-      <c r="Z34">
+      <c r="AC34">
         <v>0.12664800000000001</v>
       </c>
-      <c r="AA34">
+      <c r="AD34">
         <v>6.2628000000000003E-2</v>
       </c>
-      <c r="AB34" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE34">
+        <f t="shared" si="11"/>
+        <v>9.4638E-2</v>
+      </c>
+      <c r="AF34" s="15">
+        <f t="shared" si="12"/>
         <v>-6.4020000000000007E-2</v>
       </c>
-      <c r="AC34">
+      <c r="AG34">
         <v>-0.1232</v>
       </c>
-      <c r="AD34">
+      <c r="AH34">
         <v>-6.8015999999999993E-2</v>
       </c>
-      <c r="AE34" s="15">
-        <f>AD34-AC34</f>
+      <c r="AI34">
+        <f t="shared" si="13"/>
+        <v>-9.5607999999999999E-2</v>
+      </c>
+      <c r="AJ34" s="15">
+        <f t="shared" si="3"/>
         <v>5.5184000000000011E-2</v>
       </c>
-      <c r="AF34">
+      <c r="AK34">
         <v>-0.30429</v>
       </c>
-      <c r="AG34">
+      <c r="AL34">
         <v>-8.6794999999999997E-2</v>
       </c>
-      <c r="AH34">
-        <f>AG34-AF34</f>
+      <c r="AM34">
+        <f t="shared" si="14"/>
+        <v>-0.19554250000000001</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="4"/>
         <v>0.21749499999999999</v>
       </c>
-      <c r="AI34" s="22">
+      <c r="AO34" s="22">
         <v>-6.1380999999999998E-2</v>
       </c>
-      <c r="AJ34">
+      <c r="AP34">
         <v>-5.3992999999999999E-2</v>
       </c>
-      <c r="AK34" s="15">
-        <f>AJ34-AI34</f>
+      <c r="AQ34">
+        <f t="shared" si="15"/>
+        <v>-5.7687000000000002E-2</v>
+      </c>
+      <c r="AR34" s="15">
+        <f t="shared" si="5"/>
         <v>7.3879999999999987E-3</v>
       </c>
-      <c r="AL34" s="22">
+      <c r="AS34" s="22">
         <v>-0.161796</v>
       </c>
-      <c r="AM34">
+      <c r="AT34">
         <v>-9.8267999999999994E-2</v>
       </c>
-      <c r="AN34" s="15">
-        <f>AM34-AL34</f>
+      <c r="AU34">
+        <f t="shared" si="16"/>
+        <v>-0.13003199999999998</v>
+      </c>
+      <c r="AV34" s="15">
+        <f t="shared" si="6"/>
         <v>6.3528000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:48" x14ac:dyDescent="0.2">
       <c r="I35" s="16">
         <v>4019</v>
       </c>
@@ -4862,7 +5966,7 @@
         <v>6</v>
       </c>
       <c r="P35" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Q35" s="22">
@@ -4872,81 +5976,113 @@
         <v>-0.26041500000000001</v>
       </c>
       <c r="S35" s="15">
-        <f>R35-Q35</f>
+        <f t="shared" si="8"/>
+        <v>-0.23498350000000001</v>
+      </c>
+      <c r="T35" s="15">
+        <f t="shared" si="0"/>
         <v>-5.0863000000000019E-2</v>
       </c>
-      <c r="T35" s="22">
+      <c r="U35" s="22">
         <v>-0.119703</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.20413899999999999</v>
       </c>
-      <c r="V35" s="15">
-        <f>U35-T35</f>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>-0.16192099999999998</v>
+      </c>
+      <c r="X35" s="15">
+        <f t="shared" si="1"/>
         <v>-8.4435999999999983E-2</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <v>-0.19728599999999999</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <v>-0.16514200000000001</v>
       </c>
-      <c r="Y35" s="15">
-        <f>X35-W35</f>
+      <c r="AA35">
+        <f t="shared" si="10"/>
+        <v>-0.18121399999999999</v>
+      </c>
+      <c r="AB35" s="15">
+        <f t="shared" si="2"/>
         <v>3.2143999999999978E-2</v>
       </c>
-      <c r="Z35">
+      <c r="AC35">
         <v>-8.1860000000000002E-2</v>
       </c>
-      <c r="AA35">
+      <c r="AD35">
         <v>-5.527E-2</v>
       </c>
-      <c r="AB35" s="15">
-        <f t="shared" si="1"/>
+      <c r="AE35">
+        <f t="shared" si="11"/>
+        <v>-6.8565000000000001E-2</v>
+      </c>
+      <c r="AF35" s="15">
+        <f t="shared" si="12"/>
         <v>2.6590000000000003E-2</v>
       </c>
-      <c r="AC35">
+      <c r="AG35">
         <v>3.8027999999999999E-2</v>
       </c>
-      <c r="AD35">
+      <c r="AH35">
         <v>1.6508999999999999E-2</v>
       </c>
-      <c r="AE35" s="15">
-        <f>AD35-AC35</f>
+      <c r="AI35">
+        <f t="shared" si="13"/>
+        <v>2.7268500000000001E-2</v>
+      </c>
+      <c r="AJ35" s="15">
+        <f t="shared" si="3"/>
         <v>-2.1519E-2</v>
       </c>
-      <c r="AF35">
+      <c r="AK35">
         <v>-3.3804000000000001E-2</v>
       </c>
-      <c r="AG35">
+      <c r="AL35">
         <v>-0.11378000000000001</v>
       </c>
-      <c r="AH35">
-        <f>AG35-AF35</f>
+      <c r="AM35">
+        <f t="shared" si="14"/>
+        <v>-7.3791999999999996E-2</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="4"/>
         <v>-7.9976000000000005E-2</v>
       </c>
-      <c r="AI35" s="22">
+      <c r="AO35" s="22">
         <v>1.89E-2</v>
       </c>
-      <c r="AJ35">
+      <c r="AP35">
         <v>-7.9951999999999995E-2</v>
       </c>
-      <c r="AK35" s="15">
-        <f>AJ35-AI35</f>
+      <c r="AQ35">
+        <f t="shared" si="15"/>
+        <v>-3.0525999999999998E-2</v>
+      </c>
+      <c r="AR35" s="15">
+        <f t="shared" si="5"/>
         <v>-9.8851999999999995E-2</v>
       </c>
-      <c r="AL35" s="22">
+      <c r="AS35" s="22">
         <v>7.5648000000000007E-2</v>
       </c>
-      <c r="AM35">
+      <c r="AT35">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="AN35" s="15">
-        <f>AM35-AL35</f>
+      <c r="AU35">
+        <f t="shared" si="16"/>
+        <v>4.9056000000000002E-2</v>
+      </c>
+      <c r="AV35" s="15">
+        <f t="shared" si="6"/>
         <v>-5.3184000000000009E-2</v>
       </c>
     </row>
-    <row r="36" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:48" x14ac:dyDescent="0.2">
       <c r="I36" s="26">
         <v>4020</v>
       </c>
@@ -4969,7 +6105,7 @@
         <v>20</v>
       </c>
       <c r="P36" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Q36" s="33">
@@ -4978,78 +6114,110 @@
       <c r="R36" s="24">
         <v>0.214334</v>
       </c>
-      <c r="S36" s="25">
-        <f>R36-Q36</f>
+      <c r="S36" s="15">
+        <f t="shared" si="8"/>
+        <v>0.15906700000000001</v>
+      </c>
+      <c r="T36" s="25">
+        <f t="shared" si="0"/>
         <v>0.11053399999999999</v>
       </c>
-      <c r="T36" s="33">
+      <c r="U36" s="33">
         <v>1.358E-2</v>
       </c>
-      <c r="U36" s="24">
+      <c r="V36" s="24">
         <v>0.114554</v>
       </c>
-      <c r="V36" s="25">
-        <f>U36-T36</f>
+      <c r="W36">
+        <f t="shared" si="9"/>
+        <v>6.4066999999999999E-2</v>
+      </c>
+      <c r="X36" s="25">
+        <f t="shared" si="1"/>
         <v>0.10097400000000001</v>
       </c>
-      <c r="W36" s="24">
+      <c r="Y36" s="24">
         <v>5.3415999999999998E-2</v>
       </c>
-      <c r="X36" s="24">
+      <c r="Z36" s="24">
         <v>0.13294400000000001</v>
       </c>
-      <c r="Y36" s="25">
-        <f>X36-W36</f>
+      <c r="AA36">
+        <f t="shared" si="10"/>
+        <v>9.3179999999999999E-2</v>
+      </c>
+      <c r="AB36" s="25">
+        <f t="shared" si="2"/>
         <v>7.9528000000000015E-2</v>
       </c>
-      <c r="Z36" s="24">
+      <c r="AC36" s="24">
         <v>6.8223000000000006E-2</v>
       </c>
-      <c r="AA36" s="24">
+      <c r="AD36" s="24">
         <v>0.190882</v>
       </c>
-      <c r="AB36" s="25">
-        <f t="shared" si="1"/>
+      <c r="AE36">
+        <f t="shared" si="11"/>
+        <v>0.12955250000000001</v>
+      </c>
+      <c r="AF36" s="25">
+        <f t="shared" si="12"/>
         <v>0.12265899999999999</v>
       </c>
-      <c r="AC36" s="24">
+      <c r="AG36" s="24">
         <v>-2.6162000000000001E-2</v>
       </c>
-      <c r="AD36" s="24">
+      <c r="AH36" s="24">
         <v>1.6882000000000001E-2</v>
       </c>
-      <c r="AE36" s="25">
-        <f>AD36-AC36</f>
+      <c r="AI36">
+        <f t="shared" si="13"/>
+        <v>-4.64E-3</v>
+      </c>
+      <c r="AJ36" s="25">
+        <f t="shared" si="3"/>
         <v>4.3043999999999999E-2</v>
       </c>
-      <c r="AF36" s="24">
+      <c r="AK36" s="24">
         <v>-6.1238000000000001E-2</v>
       </c>
-      <c r="AG36" s="24">
+      <c r="AL36" s="24">
         <v>-3.3007000000000002E-2</v>
       </c>
-      <c r="AH36" s="24">
-        <f>AG36-AF36</f>
+      <c r="AM36">
+        <f t="shared" si="14"/>
+        <v>-4.7122499999999998E-2</v>
+      </c>
+      <c r="AN36" s="24">
+        <f t="shared" si="4"/>
         <v>2.8230999999999999E-2</v>
       </c>
-      <c r="AI36" s="33">
+      <c r="AO36" s="33">
         <v>3.5002999999999999E-2</v>
       </c>
-      <c r="AJ36" s="24">
+      <c r="AP36" s="24">
         <v>2.9975999999999999E-2</v>
       </c>
-      <c r="AK36" s="25">
-        <f>AJ36-AI36</f>
+      <c r="AQ36">
+        <f t="shared" si="15"/>
+        <v>3.2489499999999998E-2</v>
+      </c>
+      <c r="AR36" s="25">
+        <f t="shared" si="5"/>
         <v>-5.0270000000000002E-3</v>
       </c>
-      <c r="AL36" s="33">
+      <c r="AS36" s="33">
         <v>2.5399999999999999E-4</v>
       </c>
-      <c r="AM36" s="24">
+      <c r="AT36" s="24">
         <v>-3.39E-4</v>
       </c>
-      <c r="AN36" s="25">
-        <f>AM36-AL36</f>
+      <c r="AU36">
+        <f t="shared" si="16"/>
+        <v>-4.2500000000000003E-5</v>
+      </c>
+      <c r="AV36" s="25">
+        <f t="shared" si="6"/>
         <v>-5.9299999999999999E-4</v>
       </c>
     </row>
